--- a/bill2/kansepur bill2.xlsx
+++ b/bill2/kansepur bill2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="25">
   <si>
     <t>jabir</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>shokeen</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -414,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C454"/>
+  <dimension ref="A1:C455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="B454" sqref="B454"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -426,749 +435,752 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
         <v>43448</v>
       </c>
-      <c r="C1">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
       <c r="C2">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3">
-        <v>411</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5">
-        <v>462</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6">
-        <v>409</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="C7">
-        <v>500</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8">
-        <v>416</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9">
-        <v>486</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10">
-        <v>425</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="C12">
-        <v>400</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="C13">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14">
-        <v>436</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="C15">
-        <v>409</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="C16">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="C17">
-        <v>500</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="C18">
-        <v>486</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="C19">
-        <v>462</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="C20">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="C21">
         <v>425</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="C22">
-        <v>399</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="C23">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24">
-        <v>419</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25">
-        <v>400</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="C26">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="C27">
-        <v>436</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="C28">
-        <v>409</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="C29">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="C30">
         <v>416</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>419</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>462</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>425</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="B34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>400</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>399</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
         <v>8</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
         <v>43449</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>400</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40">
-        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="B41" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>462</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>399</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>486</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>425</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>416</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49">
-        <v>538</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>401</v>
+        <v>538</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51">
-        <v>500</v>
+        <v>401</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>419</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>462</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>416</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57">
-        <v>486</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C58">
-        <v>399</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C60">
-        <v>538</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C61">
-        <v>500</v>
+        <v>538</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C62">
-        <v>425</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>462</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="B66" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>411</v>
+        <v>462</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="B67" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C67">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>486</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="B69" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>486</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="B70" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70">
-        <v>416</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="B71" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C71">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="B72" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>538</v>
+        <v>419</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="B73" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C73">
-        <v>425</v>
+        <v>538</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="B74" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>401</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="B75" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C75">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="B76" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>500</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="B77" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C77">
-        <v>419</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="B79" t="s">
         <v>1</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>462</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1">
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
         <v>43450</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>0</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>389</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="B80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80">
-        <v>370</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>456</v>
+        <v>370</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82">
-        <v>379</v>
+        <v>456</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C83">
-        <v>432</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>381</v>
+        <v>432</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C85">
-        <v>406</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C86">
-        <v>508</v>
+        <v>406</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>508</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88">
-        <v>380</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C89">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C90">
-        <v>371</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>371</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92">
-        <v>389</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C93">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C95">
-        <v>409</v>
+        <v>386</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C97">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C99">
-        <v>476</v>
+        <v>391</v>
       </c>
     </row>
     <row r="100" spans="2:3">
       <c r="B100" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C100">
-        <v>452</v>
+        <v>476</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>426</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>528</v>
+        <v>426</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C103">
-        <v>425</v>
+        <v>528</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="B106" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106">
-        <v>380</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="B107" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C107">
         <v>380</v>
@@ -1176,1050 +1188,1047 @@
     </row>
     <row r="108" spans="2:3">
       <c r="B108" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C108">
-        <v>419</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="B109" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C110">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C111">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="112" spans="2:3">
       <c r="B112" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C112">
-        <v>486</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="B113" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C113">
-        <v>401</v>
+        <v>486</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="B114" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="B115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C115">
-        <v>538</v>
+        <v>436</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="B116" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C116">
-        <v>400</v>
+        <v>538</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="B117" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>462</v>
+        <v>400</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="B118" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>419</v>
+        <v>462</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="B119" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="B120" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>425</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="B121" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121">
-        <v>380</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="B122" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C122">
-        <v>416</v>
+        <v>380</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="B123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="B124" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C124">
+        <v>409</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="B125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="B126" t="s">
         <v>6</v>
       </c>
-      <c r="C125">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1">
+      <c r="C126">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
         <v>43451</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>0</v>
       </c>
-      <c r="C126">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="B127" t="s">
-        <v>1</v>
-      </c>
       <c r="C127">
-        <v>462</v>
+        <v>419</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="B128" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C128">
-        <v>380</v>
+        <v>462</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="B129" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C129">
-        <v>409</v>
+        <v>380</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="B130" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C130">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C131">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="B132" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C132">
-        <v>436</v>
+        <v>390</v>
       </c>
     </row>
     <row r="133" spans="2:3">
       <c r="B133" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C133">
-        <v>486</v>
+        <v>436</v>
       </c>
     </row>
     <row r="134" spans="2:3">
       <c r="B134" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C134">
-        <v>401</v>
+        <v>486</v>
       </c>
     </row>
     <row r="135" spans="2:3">
       <c r="B135" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C135">
+        <v>401</v>
       </c>
     </row>
     <row r="136" spans="2:3">
       <c r="B136" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136">
-        <v>425</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C137">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C138">
-        <v>538</v>
+        <v>419</v>
       </c>
     </row>
     <row r="139" spans="2:3">
       <c r="B139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C139">
-        <v>416</v>
+        <v>538</v>
       </c>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C140">
-        <v>500</v>
+        <v>416</v>
       </c>
     </row>
     <row r="141" spans="2:3">
       <c r="B141" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>419</v>
+        <v>500</v>
       </c>
     </row>
     <row r="142" spans="2:3">
       <c r="B142" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142">
-        <v>462</v>
+        <v>419</v>
       </c>
     </row>
     <row r="143" spans="2:3">
       <c r="B143" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>411</v>
+        <v>462</v>
       </c>
     </row>
     <row r="144" spans="2:3">
       <c r="B144" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>380</v>
+        <v>411</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="B145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C145">
-        <v>436</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="B146" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C146">
-        <v>409</v>
+        <v>436</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="B147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C147">
-        <v>486</v>
+        <v>409</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="B148" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C148">
-        <v>500</v>
+        <v>486</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="B150" t="s">
         <v>6</v>
       </c>
-      <c r="C149">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="1"/>
-      <c r="B150" t="s">
+      <c r="C150">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1"/>
+      <c r="B151" t="s">
         <v>11</v>
       </c>
-      <c r="C150">
+      <c r="C151">
         <v>416</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="B151" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="B152" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152">
-        <v>401</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="B153" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C153">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="B154" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C154">
-        <v>538</v>
+        <v>400</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="B155" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C155">
-        <v>411</v>
+        <v>538</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="B156" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C156">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="B157" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C157">
-        <v>380</v>
+        <v>409</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="B158" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C158">
-        <v>486</v>
+        <v>380</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="B159" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C159">
-        <v>400</v>
+        <v>486</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="B160" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C160">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="B161" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <v>409</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="B162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C162">
-        <v>500</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="B163" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C163">
-        <v>401</v>
+        <v>500</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="B164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="B166" t="s">
         <v>12</v>
       </c>
-      <c r="C165">
+      <c r="C166">
         <v>538</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="1">
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
         <v>43452</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>16</v>
       </c>
-      <c r="C166">
+      <c r="C167">
         <v>470</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="B167" t="s">
-        <v>0</v>
-      </c>
-      <c r="C167">
-        <v>419</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="B168" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168">
-        <v>462</v>
+        <v>419</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="B169" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C169">
-        <v>500</v>
+        <v>462</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="B170" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C170">
-        <v>411</v>
+        <v>500</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="B171" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C171">
-        <v>380</v>
+        <v>411</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="B172" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C172">
-        <v>486</v>
+        <v>380</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="B173" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C173">
-        <v>436</v>
+        <v>486</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="B174" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C174">
-        <v>416</v>
+        <v>436</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="B175" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C175">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="B176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="177" spans="2:3">
       <c r="B177" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C177">
-        <v>538</v>
+        <v>401</v>
       </c>
     </row>
     <row r="178" spans="2:3">
       <c r="B178" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="C178">
+        <v>538</v>
       </c>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" t="s">
-        <v>4</v>
-      </c>
-      <c r="C179">
-        <v>400</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="2:3">
       <c r="B180" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C180">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181">
-        <v>462</v>
+        <v>419</v>
       </c>
     </row>
     <row r="182" spans="2:3">
       <c r="B182" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C182">
-        <v>411</v>
+        <v>462</v>
       </c>
     </row>
     <row r="183" spans="2:3">
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183">
-        <v>480</v>
+        <v>411</v>
       </c>
     </row>
     <row r="184" spans="2:3">
       <c r="B184" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C184">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="185" spans="2:3">
       <c r="B185" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C185">
-        <v>386</v>
+        <v>470</v>
       </c>
     </row>
     <row r="186" spans="2:3">
       <c r="B186" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C186">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="187" spans="2:3">
       <c r="B187" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C187">
-        <v>476</v>
+        <v>380</v>
       </c>
     </row>
     <row r="188" spans="2:3">
       <c r="B188" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C188">
-        <v>419</v>
+        <v>476</v>
       </c>
     </row>
     <row r="189" spans="2:3">
       <c r="B189" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C189">
-        <v>518</v>
+        <v>419</v>
       </c>
     </row>
     <row r="190" spans="2:3">
       <c r="B190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C190">
-        <v>416</v>
+        <v>518</v>
       </c>
     </row>
     <row r="191" spans="2:3">
       <c r="B191" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="C191">
+        <v>416</v>
       </c>
     </row>
     <row r="192" spans="2:3">
       <c r="B192" t="s">
-        <v>0</v>
-      </c>
-      <c r="C192">
-        <v>419</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="B193" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C193">
-        <v>400</v>
+        <v>419</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="B194" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C194">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="B195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C195">
-        <v>500</v>
+        <v>411</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="B196" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C196">
-        <v>462</v>
+        <v>500</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="B197" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C197">
-        <v>380</v>
+        <v>462</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="B198" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C198">
-        <v>401</v>
+        <v>380</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="B199" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C199">
-        <v>470</v>
+        <v>401</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="B200" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C200">
-        <v>538</v>
+        <v>470</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="B201" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="C201">
+        <v>538</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="B202" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="B203" t="s">
         <v>0</v>
       </c>
-      <c r="C202">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="1">
+      <c r="C203">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
         <v>43453</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>4</v>
       </c>
-      <c r="C203">
+      <c r="C204">
         <v>400</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="B204" t="s">
-        <v>16</v>
-      </c>
-      <c r="C204">
-        <v>470</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="B205" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C205">
-        <v>380</v>
+        <v>470</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="B206" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C206">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="B207" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C207">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="B208" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C208">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="209" spans="2:3">
       <c r="B209" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C209">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C210">
-        <v>486</v>
+        <v>419</v>
       </c>
     </row>
     <row r="211" spans="2:3">
       <c r="B211" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C211">
-        <v>462</v>
+        <v>486</v>
       </c>
     </row>
     <row r="212" spans="2:3">
       <c r="B212" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C212">
-        <v>401</v>
+        <v>462</v>
       </c>
     </row>
     <row r="213" spans="2:3">
       <c r="B213" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C213">
-        <v>450</v>
+        <v>401</v>
       </c>
     </row>
     <row r="214" spans="2:3">
       <c r="B214" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C214">
-        <v>436</v>
+        <v>450</v>
       </c>
     </row>
     <row r="215" spans="2:3">
       <c r="B215" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C215">
-        <v>470</v>
+        <v>436</v>
       </c>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C216">
-        <v>400</v>
+        <v>470</v>
       </c>
     </row>
     <row r="217" spans="2:3">
       <c r="B217" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C217">
+        <v>400</v>
       </c>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" t="s">
-        <v>13</v>
-      </c>
-      <c r="C218">
-        <v>380</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="2:3">
       <c r="B219" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C219">
-        <v>419</v>
+        <v>380</v>
       </c>
     </row>
     <row r="220" spans="2:3">
       <c r="B220" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C220">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="221" spans="2:3">
       <c r="B221" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C221">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C222">
-        <v>486</v>
+        <v>419</v>
       </c>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C223">
-        <v>410</v>
+        <v>486</v>
       </c>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C224">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="B225" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C225">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="B226" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C226">
-        <v>450</v>
+        <v>405</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="B227" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C227">
-        <v>436</v>
+        <v>450</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="B228" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C228">
-        <v>462</v>
+        <v>436</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="B229" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C229">
-        <v>400</v>
+        <v>462</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="B230" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C230">
-        <v>470</v>
+        <v>400</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="B231" t="s">
+        <v>16</v>
+      </c>
+      <c r="C231">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="B232" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="1"/>
-      <c r="B232" t="s">
+    <row r="233" spans="1:3">
+      <c r="A233" s="1"/>
+      <c r="B233" t="s">
         <v>6</v>
       </c>
-      <c r="C232">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="B233" t="s">
-        <v>8</v>
-      </c>
       <c r="C233">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="B234" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C234">
-        <v>380</v>
+        <v>411</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="B235" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C235">
-        <v>486</v>
+        <v>380</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="B236" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="C236">
+        <v>486</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="B237" t="s">
-        <v>18</v>
-      </c>
-      <c r="C237">
-        <v>410</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="B238" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C238">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="B239" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C239">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="B240" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C240">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="1">
-        <v>43454</v>
-      </c>
       <c r="B241" t="s">
         <v>19</v>
       </c>
@@ -2228,1277 +2237,1280 @@
       </c>
     </row>
     <row r="242" spans="1:3">
+      <c r="A242" s="1">
+        <v>43454</v>
+      </c>
       <c r="B242" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C242">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="B243" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243">
-        <v>462</v>
+        <v>419</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="B244" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C244">
-        <v>400</v>
+        <v>462</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="B245" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C245">
-        <v>380</v>
+        <v>400</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="B246" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C246">
-        <v>411</v>
+        <v>380</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="B247" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C247">
-        <v>450</v>
+        <v>411</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="B248" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C248">
-        <v>436</v>
+        <v>450</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="B249" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C249">
-        <v>410</v>
+        <v>436</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="B250" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C250">
-        <v>470</v>
+        <v>410</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="B251" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C251">
-        <v>419</v>
+        <v>470</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="B252" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C252">
-        <v>538</v>
+        <v>419</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="B253" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C253">
-        <v>480</v>
+        <v>538</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="B254" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C254">
-        <v>401</v>
+        <v>480</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="B255" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C255">
-        <v>486</v>
+        <v>401</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="B256" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C256">
+        <v>486</v>
       </c>
     </row>
     <row r="257" spans="2:3">
       <c r="B257" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="2:3">
       <c r="B258" t="s">
-        <v>11</v>
-      </c>
-      <c r="C258">
-        <v>416</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="2:3">
       <c r="B259" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C259">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="260" spans="2:3">
       <c r="B260" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260">
-        <v>462</v>
+        <v>419</v>
       </c>
     </row>
     <row r="261" spans="2:3">
       <c r="B261" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C261">
-        <v>380</v>
+        <v>462</v>
       </c>
     </row>
     <row r="262" spans="2:3">
       <c r="B262" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C262">
-        <v>411</v>
+        <v>380</v>
       </c>
     </row>
     <row r="263" spans="2:3">
       <c r="B263" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C263">
-        <v>470</v>
+        <v>411</v>
       </c>
     </row>
     <row r="264" spans="2:3">
       <c r="B264" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C264">
-        <v>405</v>
+        <v>470</v>
       </c>
     </row>
     <row r="265" spans="2:3">
       <c r="B265" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C265">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="266" spans="2:3">
       <c r="B266" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C266">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="267" spans="2:3">
       <c r="B267" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C267">
-        <v>400</v>
+        <v>419</v>
       </c>
     </row>
     <row r="268" spans="2:3">
       <c r="B268" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C268">
-        <v>436</v>
+        <v>400</v>
       </c>
     </row>
     <row r="269" spans="2:3">
       <c r="B269" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C269">
-        <v>538</v>
+        <v>436</v>
       </c>
     </row>
     <row r="270" spans="2:3">
       <c r="B270" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C270">
-        <v>486</v>
+        <v>538</v>
       </c>
     </row>
     <row r="271" spans="2:3">
       <c r="B271" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C271">
-        <v>401</v>
+        <v>486</v>
       </c>
     </row>
     <row r="272" spans="2:3">
       <c r="B272" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C272">
+        <v>401</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="B273" t="s">
-        <v>5</v>
-      </c>
-      <c r="C273">
-        <v>500</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="B274" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C274">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="B275" t="s">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="C275">
+        <v>450</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="B276" t="s">
-        <v>0</v>
-      </c>
-      <c r="C276">
-        <v>419</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="B277" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C277">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="B278" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C278">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="B279" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C279">
-        <v>470</v>
+        <v>416</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="B280" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C280">
-        <v>380</v>
+        <v>470</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="B281" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C281">
-        <v>410</v>
+        <v>380</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="B282" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C282">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="B283" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C283">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="B284" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C284">
-        <v>436</v>
+        <v>405</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="B285" t="s">
+        <v>14</v>
+      </c>
+      <c r="C285">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="B286" t="s">
         <v>6</v>
       </c>
-      <c r="C285">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="A286" s="1">
+      <c r="C286">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1">
         <v>43455</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B287" t="s">
         <v>0</v>
       </c>
-      <c r="C286">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="B287" t="s">
-        <v>4</v>
-      </c>
       <c r="C287">
-        <v>400</v>
+        <v>419</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="B288" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C288">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="289" spans="2:3">
       <c r="B289" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C289">
-        <v>486</v>
+        <v>450</v>
       </c>
     </row>
     <row r="290" spans="2:3">
       <c r="B290" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C290">
-        <v>411</v>
+        <v>486</v>
       </c>
     </row>
     <row r="291" spans="2:3">
       <c r="B291" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C291">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="292" spans="2:3">
       <c r="B292" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C292">
-        <v>462</v>
+        <v>409</v>
       </c>
     </row>
     <row r="293" spans="2:3">
       <c r="B293" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C293">
+        <v>462</v>
       </c>
     </row>
     <row r="294" spans="2:3">
       <c r="B294" t="s">
-        <v>14</v>
-      </c>
-      <c r="C294">
-        <v>436</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="2:3">
       <c r="B295" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="C295">
+        <v>436</v>
       </c>
     </row>
     <row r="296" spans="2:3">
       <c r="B296" t="s">
-        <v>12</v>
-      </c>
-      <c r="C296">
-        <v>538</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="2:3">
       <c r="B297" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C297">
-        <v>500</v>
+        <v>538</v>
       </c>
     </row>
     <row r="298" spans="2:3">
       <c r="B298" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C298">
-        <v>416</v>
+        <v>500</v>
       </c>
     </row>
     <row r="299" spans="2:3">
       <c r="B299" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C299">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="300" spans="2:3">
       <c r="B300" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C300">
-        <v>401</v>
+        <v>419</v>
       </c>
     </row>
     <row r="301" spans="2:3">
       <c r="B301" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C301">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="302" spans="2:3">
       <c r="B302" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C302">
-        <v>470</v>
+        <v>380</v>
       </c>
     </row>
     <row r="303" spans="2:3">
       <c r="B303" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C303">
-        <v>430</v>
+        <v>470</v>
       </c>
     </row>
     <row r="304" spans="2:3">
       <c r="B304" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C304">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="B305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="B306" t="s">
         <v>20</v>
       </c>
-      <c r="C305">
+      <c r="C306">
         <v>450</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
-      <c r="A306" s="1">
+    <row r="307" spans="1:3">
+      <c r="A307" s="1">
         <v>43456</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B307" t="s">
         <v>0</v>
       </c>
-      <c r="C306">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
-      <c r="B307" t="s">
-        <v>20</v>
-      </c>
       <c r="C307">
-        <v>450</v>
+        <v>419</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="B308" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C308">
-        <v>405</v>
+        <v>450</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="B309" t="s">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C309">
+        <v>405</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="B310" t="s">
-        <v>3</v>
-      </c>
-      <c r="C310">
-        <v>517</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="B311" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C311">
-        <v>436</v>
+        <v>517</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="B312" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C312">
-        <v>416</v>
+        <v>436</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="B313" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C313">
-        <v>486</v>
+        <v>416</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="B314" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C314">
-        <v>411</v>
+        <v>486</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="B315" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C315">
-        <v>462</v>
+        <v>411</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="B316" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C316">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="B317" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C317">
-        <v>380</v>
+        <v>470</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="B318" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C318">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="B319" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C319">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="B320" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C320">
-        <v>401</v>
+        <v>500</v>
       </c>
     </row>
     <row r="321" spans="2:3">
       <c r="B321" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C321">
-        <v>538</v>
+        <v>401</v>
       </c>
     </row>
     <row r="322" spans="2:3">
       <c r="B322" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C322">
-        <v>419</v>
+        <v>538</v>
       </c>
     </row>
     <row r="323" spans="2:3">
       <c r="B323" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C323">
-        <v>453</v>
+        <v>419</v>
       </c>
     </row>
     <row r="324" spans="2:3">
       <c r="B324" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C324">
-        <v>419</v>
+        <v>453</v>
       </c>
     </row>
     <row r="325" spans="2:3">
       <c r="B325" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C325">
-        <v>450</v>
+        <v>419</v>
       </c>
     </row>
     <row r="326" spans="2:3">
       <c r="B326" t="s">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="C326">
+        <v>450</v>
       </c>
     </row>
     <row r="327" spans="2:3">
       <c r="B327" t="s">
-        <v>14</v>
-      </c>
-      <c r="C327">
-        <v>436</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="2:3">
       <c r="B328" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C328">
-        <v>405</v>
+        <v>436</v>
       </c>
     </row>
     <row r="329" spans="2:3">
       <c r="B329" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C329">
-        <v>470</v>
+        <v>405</v>
       </c>
     </row>
     <row r="330" spans="2:3">
       <c r="B330" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C330">
-        <v>517</v>
+        <v>470</v>
       </c>
     </row>
     <row r="331" spans="2:3">
       <c r="B331" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C331">
-        <v>416</v>
+        <v>517</v>
       </c>
     </row>
     <row r="332" spans="2:3">
       <c r="B332" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C332">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="333" spans="2:3">
       <c r="B333" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C333">
-        <v>486</v>
+        <v>411</v>
       </c>
     </row>
     <row r="334" spans="2:3">
       <c r="B334" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C334">
-        <v>380</v>
+        <v>486</v>
       </c>
     </row>
     <row r="335" spans="2:3">
       <c r="B335" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C335">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="336" spans="2:3">
       <c r="B336" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C336">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="B337" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C337">
-        <v>462</v>
+        <v>401</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="B338" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C338">
-        <v>538</v>
+        <v>462</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="B339" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C339">
-        <v>419</v>
+        <v>538</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="B340" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C340">
-        <v>453</v>
+        <v>419</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="B341" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C341">
-        <v>500</v>
+        <v>453</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="B342" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C342">
-        <v>430</v>
+        <v>500</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="B343" t="s">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="C343">
+        <v>430</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="B344" t="s">
-        <v>0</v>
-      </c>
-      <c r="C344">
-        <v>419</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="B345" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C345">
-        <v>470</v>
+        <v>419</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="B346" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C346">
-        <v>411</v>
+        <v>470</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="B347" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C347">
-        <v>436</v>
+        <v>411</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="B348" t="s">
+        <v>14</v>
+      </c>
+      <c r="C348">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="B349" t="s">
         <v>19</v>
       </c>
-      <c r="C348">
+      <c r="C349">
         <v>405</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
-      <c r="A349" s="1">
+    <row r="350" spans="1:3">
+      <c r="A350" s="1">
         <v>43457</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B350" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
-      <c r="B350" t="s">
-        <v>0</v>
-      </c>
-      <c r="C350">
-        <v>419</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="B351" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C351">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="B352" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C352">
-        <v>450</v>
+        <v>405</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="B353" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C353">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="B354" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C354">
-        <v>411</v>
+        <v>500</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="B355" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C355">
-        <v>486</v>
+        <v>411</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="B356" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C356">
-        <v>436</v>
+        <v>486</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="B357" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C357">
-        <v>462</v>
+        <v>436</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="B358" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C358">
-        <v>380</v>
+        <v>462</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="B359" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C359">
-        <v>453</v>
+        <v>380</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="B360" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C360">
-        <v>416</v>
+        <v>453</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="B361" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C361">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="B362" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C362">
-        <v>401</v>
+        <v>419</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="B363" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C363">
-        <v>430</v>
+        <v>401</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="B364" t="s">
+        <v>18</v>
+      </c>
+      <c r="C364">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="B365" t="s">
         <v>16</v>
       </c>
-      <c r="C364">
+      <c r="C365">
         <v>470</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
-      <c r="A365" s="1">
+    <row r="366" spans="1:3">
+      <c r="A366" s="1">
         <v>43461</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B366" t="s">
         <v>10</v>
       </c>
-      <c r="C365">
+      <c r="C366">
         <v>420</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
-      <c r="B366" t="s">
-        <v>19</v>
-      </c>
-      <c r="C366">
-        <v>405</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="B367" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C367">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="B368" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C368">
+        <v>419</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="B369" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="B370" t="s">
         <v>9</v>
       </c>
-      <c r="C369">
+      <c r="C370">
         <v>486</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
-      <c r="A370" s="1">
+    <row r="371" spans="1:3">
+      <c r="A371" s="1">
         <v>43462</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B371" t="s">
         <v>10</v>
       </c>
-      <c r="C370">
+      <c r="C371">
         <v>420</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
-      <c r="B371" t="s">
-        <v>3</v>
-      </c>
-      <c r="C371">
-        <v>517</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="B372" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C372">
+        <v>517</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="B373" t="s">
-        <v>11</v>
-      </c>
-      <c r="C373">
-        <v>416</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="B374" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C374">
-        <v>500</v>
+        <v>416</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="B375" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C375">
-        <v>486</v>
+        <v>500</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="B376" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C376">
-        <v>453</v>
+        <v>486</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="B377" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C377">
-        <v>380</v>
+        <v>453</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="B378" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C378">
-        <v>419</v>
+        <v>380</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="B379" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C379">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="B380" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C380">
-        <v>538</v>
+        <v>405</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="B381" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C381">
-        <v>462</v>
+        <v>538</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="B382" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C382">
-        <v>420</v>
+        <v>462</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="B383" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C383">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="B384" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C384">
-        <v>486</v>
+        <v>416</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="B385" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C385">
+        <v>486</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="B386" t="s">
-        <v>3</v>
-      </c>
-      <c r="C386">
-        <v>517</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="B387" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C387">
-        <v>453</v>
+        <v>517</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="B388" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C388">
-        <v>405</v>
+        <v>453</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="B389" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C389">
-        <v>538</v>
+        <v>405</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="B390" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C390">
-        <v>420</v>
+        <v>538</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="B391" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C391">
+        <v>420</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="B392" t="s">
-        <v>3</v>
-      </c>
-      <c r="C392">
-        <v>517</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="B393" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C393">
-        <v>416</v>
+        <v>517</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="B394" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C394">
-        <v>456</v>
+        <v>416</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="B395" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C395">
-        <v>420</v>
+        <v>456</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="B396" t="s">
+        <v>10</v>
+      </c>
+      <c r="C396">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="B397" t="s">
         <v>6</v>
       </c>
-      <c r="C396">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3">
-      <c r="A397" s="1">
+      <c r="C397">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="1">
         <v>43463</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B398" t="s">
         <v>10</v>
       </c>
-      <c r="C397">
+      <c r="C398">
         <v>420</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3">
-      <c r="B398" t="s">
-        <v>19</v>
-      </c>
-      <c r="C398">
-        <v>405</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="B399" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C399">
-        <v>517</v>
+        <v>405</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="B400" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C400">
+        <v>517</v>
       </c>
     </row>
     <row r="401" spans="2:3">
       <c r="B401" t="s">
-        <v>11</v>
-      </c>
-      <c r="C401">
-        <v>416</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="2:3">
       <c r="B402" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C402">
-        <v>486</v>
+        <v>416</v>
       </c>
     </row>
     <row r="403" spans="2:3">
       <c r="B403" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C403">
-        <v>419</v>
+        <v>486</v>
       </c>
     </row>
     <row r="404" spans="2:3">
       <c r="B404" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C404">
         <v>419</v>
@@ -3506,392 +3518,400 @@
     </row>
     <row r="405" spans="2:3">
       <c r="B405" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C405">
-        <v>538</v>
+        <v>419</v>
       </c>
     </row>
     <row r="406" spans="2:3">
       <c r="B406" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C406">
-        <v>462</v>
+        <v>538</v>
       </c>
     </row>
     <row r="407" spans="2:3">
       <c r="B407" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C407">
-        <v>420</v>
+        <v>462</v>
       </c>
     </row>
     <row r="408" spans="2:3">
       <c r="B408" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C408">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="409" spans="2:3">
       <c r="B409" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C409">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="410" spans="2:3">
       <c r="B410" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C410">
-        <v>486</v>
+        <v>405</v>
       </c>
     </row>
     <row r="411" spans="2:3">
       <c r="B411" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C411">
-        <v>419</v>
+        <v>486</v>
       </c>
     </row>
     <row r="412" spans="2:3">
       <c r="B412" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C412">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="413" spans="2:3">
       <c r="B413" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C413">
-        <v>500</v>
+        <v>416</v>
       </c>
     </row>
     <row r="414" spans="2:3">
       <c r="B414" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C414">
-        <v>538</v>
+        <v>500</v>
       </c>
     </row>
     <row r="415" spans="2:3">
       <c r="B415" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C415">
-        <v>462</v>
+        <v>538</v>
       </c>
     </row>
     <row r="416" spans="2:3">
       <c r="B416" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C416">
-        <v>419</v>
+        <v>462</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="B417" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C417">
+        <v>419</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="B418" t="s">
-        <v>10</v>
-      </c>
-      <c r="C418">
-        <v>420</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="B419" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C419">
-        <v>486</v>
+        <v>420</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="B420" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C420">
-        <v>517</v>
+        <v>486</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="B421" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C421">
-        <v>419</v>
+        <v>517</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="B422" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C422">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="B423" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C423">
-        <v>538</v>
+        <v>416</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="B424" t="s">
+        <v>12</v>
+      </c>
+      <c r="C424">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="B425" t="s">
         <v>0</v>
       </c>
-      <c r="C424">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3">
-      <c r="A425" s="1">
+      <c r="C425">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="1">
         <v>43464</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B426" t="s">
         <v>10</v>
       </c>
-      <c r="C425">
+      <c r="C426">
         <v>420</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3">
-      <c r="B426" t="s">
-        <v>0</v>
-      </c>
-      <c r="C426">
-        <v>419</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="B427" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C427">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="B428" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C428">
-        <v>453</v>
+        <v>405</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="B429" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C429">
-        <v>517</v>
+        <v>453</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="B430" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C430">
-        <v>486</v>
+        <v>517</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="B431" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C431">
-        <v>416</v>
+        <v>486</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="B432" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C432">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="433" spans="2:3">
       <c r="B433" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C433">
+        <v>419</v>
       </c>
     </row>
     <row r="434" spans="2:3">
       <c r="B434" t="s">
-        <v>1</v>
-      </c>
-      <c r="C434">
-        <v>462</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="2:3">
       <c r="B435" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C435">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="436" spans="2:3">
       <c r="B436" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C436">
-        <v>430</v>
+        <v>470</v>
       </c>
     </row>
     <row r="437" spans="2:3">
       <c r="B437" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C437">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="438" spans="2:3">
       <c r="B438" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C438">
-        <v>405</v>
+        <v>420</v>
       </c>
     </row>
     <row r="439" spans="2:3">
       <c r="B439" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C439">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="440" spans="2:3">
       <c r="B440" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C440">
-        <v>453</v>
+        <v>419</v>
       </c>
     </row>
     <row r="441" spans="2:3">
       <c r="B441" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C441">
-        <v>416</v>
+        <v>453</v>
       </c>
     </row>
     <row r="442" spans="2:3">
       <c r="B442" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C442">
-        <v>517</v>
+        <v>416</v>
       </c>
     </row>
     <row r="443" spans="2:3">
       <c r="B443" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C443">
-        <v>486</v>
+        <v>517</v>
       </c>
     </row>
     <row r="444" spans="2:3">
       <c r="B444" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C444">
-        <v>419</v>
+        <v>486</v>
       </c>
     </row>
     <row r="445" spans="2:3">
       <c r="B445" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>419</v>
       </c>
     </row>
     <row r="446" spans="2:3">
       <c r="B446" t="s">
-        <v>6</v>
-      </c>
-      <c r="C446">
-        <v>419</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="2:3">
       <c r="B447" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C447">
-        <v>453</v>
+        <v>419</v>
       </c>
     </row>
     <row r="448" spans="2:3">
       <c r="B448" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C448">
-        <v>416</v>
+        <v>453</v>
       </c>
     </row>
     <row r="449" spans="2:3">
       <c r="B449" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C449">
-        <v>470</v>
+        <v>416</v>
       </c>
     </row>
     <row r="450" spans="2:3">
       <c r="B450" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C450">
-        <v>517</v>
+        <v>470</v>
       </c>
     </row>
     <row r="451" spans="2:3">
       <c r="B451" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C451">
-        <v>419</v>
+        <v>517</v>
       </c>
     </row>
     <row r="452" spans="2:3">
       <c r="B452" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C452">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="453" spans="2:3">
       <c r="B453" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C453">
-        <v>405</v>
+        <v>420</v>
       </c>
     </row>
     <row r="454" spans="2:3">
       <c r="B454" t="s">
+        <v>19</v>
+      </c>
+      <c r="C454">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3">
+      <c r="B455" t="s">
         <v>20</v>
       </c>
     </row>

--- a/bill2/kansepur bill2.xlsx
+++ b/bill2/kansepur bill2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="23">
   <si>
     <t>jabir</t>
   </si>
@@ -63,13 +63,7 @@
     <t>zakir</t>
   </si>
   <si>
-    <t>rasiid</t>
-  </si>
-  <si>
     <t>shabir</t>
-  </si>
-  <si>
-    <t>ra</t>
   </si>
   <si>
     <t>aashu</t>
@@ -425,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C455"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -436,13 +430,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1297,7 +1291,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="B122" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C122">
         <v>380</v>
@@ -1652,7 +1646,7 @@
         <v>43452</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C167">
         <v>470</v>
@@ -1740,7 +1734,7 @@
     </row>
     <row r="178" spans="2:3">
       <c r="B178" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C178">
         <v>538</v>
@@ -1793,7 +1787,7 @@
     </row>
     <row r="185" spans="2:3">
       <c r="B185" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C185">
         <v>470</v>
@@ -1910,7 +1904,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="B200" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C200">
         <v>470</v>
@@ -1950,7 +1944,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="B205" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C205">
         <v>470</v>
@@ -1966,7 +1960,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="B207" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C207">
         <v>400</v>
@@ -1974,7 +1968,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="B208" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C208">
         <v>405</v>
@@ -2022,7 +2016,7 @@
     </row>
     <row r="214" spans="2:3">
       <c r="B214" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C214">
         <v>450</v>
@@ -2038,7 +2032,7 @@
     </row>
     <row r="216" spans="2:3">
       <c r="B216" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C216">
         <v>470</v>
@@ -2099,7 +2093,7 @@
     </row>
     <row r="224" spans="2:3">
       <c r="B224" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C224">
         <v>410</v>
@@ -2115,7 +2109,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="B226" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C226">
         <v>405</v>
@@ -2123,7 +2117,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="B227" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C227">
         <v>450</v>
@@ -2155,7 +2149,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="B231" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C231">
         <v>470</v>
@@ -2206,7 +2200,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="B238" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C238">
         <v>410</v>
@@ -2230,7 +2224,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="B241" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C241">
         <v>405</v>
@@ -2241,7 +2235,7 @@
         <v>43454</v>
       </c>
       <c r="B242" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C242">
         <v>405</v>
@@ -2289,7 +2283,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="B248" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C248">
         <v>450</v>
@@ -2305,7 +2299,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="B250" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C250">
         <v>410</v>
@@ -2313,7 +2307,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="B251" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C251">
         <v>470</v>
@@ -2411,7 +2405,7 @@
     </row>
     <row r="264" spans="2:3">
       <c r="B264" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C264">
         <v>470</v>
@@ -2419,7 +2413,7 @@
     </row>
     <row r="265" spans="2:3">
       <c r="B265" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C265">
         <v>405</v>
@@ -2427,7 +2421,7 @@
     </row>
     <row r="266" spans="2:3">
       <c r="B266" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C266">
         <v>410</v>
@@ -2496,7 +2490,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="B275" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C275">
         <v>450</v>
@@ -2533,7 +2527,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="B280" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C280">
         <v>470</v>
@@ -2549,7 +2543,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="B282" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C282">
         <v>410</v>
@@ -2565,7 +2559,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="B284" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C284">
         <v>405</v>
@@ -2608,7 +2602,7 @@
     </row>
     <row r="289" spans="2:3">
       <c r="B289" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C289">
         <v>450</v>
@@ -2714,7 +2708,7 @@
     </row>
     <row r="303" spans="2:3">
       <c r="B303" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C303">
         <v>470</v>
@@ -2722,7 +2716,7 @@
     </row>
     <row r="304" spans="2:3">
       <c r="B304" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C304">
         <v>430</v>
@@ -2738,7 +2732,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="B306" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C306">
         <v>450</v>
@@ -2757,7 +2751,7 @@
     </row>
     <row r="308" spans="1:3">
       <c r="B308" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C308">
         <v>450</v>
@@ -2765,7 +2759,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="B309" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C309">
         <v>405</v>
@@ -2826,7 +2820,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="B317" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C317">
         <v>470</v>
@@ -2882,7 +2876,7 @@
     </row>
     <row r="324" spans="2:3">
       <c r="B324" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C324">
         <v>453</v>
@@ -2898,7 +2892,7 @@
     </row>
     <row r="326" spans="2:3">
       <c r="B326" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C326">
         <v>450</v>
@@ -2919,7 +2913,7 @@
     </row>
     <row r="329" spans="2:3">
       <c r="B329" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C329">
         <v>405</v>
@@ -2927,7 +2921,7 @@
     </row>
     <row r="330" spans="2:3">
       <c r="B330" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C330">
         <v>470</v>
@@ -3015,7 +3009,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="B341" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C341">
         <v>453</v>
@@ -3031,7 +3025,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="B343" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C343">
         <v>430</v>
@@ -3052,7 +3046,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="B346" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C346">
         <v>470</v>
@@ -3076,7 +3070,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="B349" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C349">
         <v>405</v>
@@ -3100,7 +3094,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="B352" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C352">
         <v>405</v>
@@ -3108,7 +3102,7 @@
     </row>
     <row r="353" spans="1:3">
       <c r="B353" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C353">
         <v>450</v>
@@ -3164,7 +3158,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="B360" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C360">
         <v>453</v>
@@ -3196,7 +3190,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="B364" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C364">
         <v>430</v>
@@ -3204,7 +3198,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="B365" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C365">
         <v>470</v>
@@ -3223,7 +3217,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="B367" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C367">
         <v>405</v>
@@ -3300,7 +3294,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="B377" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C377">
         <v>453</v>
@@ -3324,7 +3318,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="B380" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C380">
         <v>405</v>
@@ -3385,7 +3379,7 @@
     </row>
     <row r="388" spans="1:3">
       <c r="B388" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C388">
         <v>453</v>
@@ -3393,7 +3387,7 @@
     </row>
     <row r="389" spans="1:3">
       <c r="B389" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C389">
         <v>405</v>
@@ -3473,7 +3467,7 @@
     </row>
     <row r="399" spans="1:3">
       <c r="B399" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C399">
         <v>405</v>
@@ -3558,7 +3552,7 @@
     </row>
     <row r="410" spans="2:3">
       <c r="B410" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C410">
         <v>405</v>
@@ -3702,7 +3696,7 @@
     </row>
     <row r="428" spans="1:3">
       <c r="B428" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C428">
         <v>405</v>
@@ -3710,7 +3704,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="B429" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C429">
         <v>453</v>
@@ -3763,7 +3757,7 @@
     </row>
     <row r="436" spans="2:3">
       <c r="B436" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C436">
         <v>470</v>
@@ -3771,7 +3765,7 @@
     </row>
     <row r="437" spans="2:3">
       <c r="B437" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C437">
         <v>430</v>
@@ -3787,7 +3781,7 @@
     </row>
     <row r="439" spans="2:3">
       <c r="B439" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C439">
         <v>405</v>
@@ -3803,7 +3797,7 @@
     </row>
     <row r="441" spans="2:3">
       <c r="B441" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C441">
         <v>453</v>
@@ -3856,7 +3850,7 @@
     </row>
     <row r="448" spans="2:3">
       <c r="B448" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C448">
         <v>453</v>
@@ -3872,7 +3866,7 @@
     </row>
     <row r="450" spans="2:3">
       <c r="B450" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C450">
         <v>470</v>
@@ -3904,7 +3898,7 @@
     </row>
     <row r="454" spans="2:3">
       <c r="B454" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C454">
         <v>405</v>
@@ -3912,7 +3906,7 @@
     </row>
     <row r="455" spans="2:3">
       <c r="B455" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/bill2/kansepur bill2.xlsx
+++ b/bill2/kansepur bill2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="24">
   <si>
     <t>jabir</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>kaat</t>
   </si>
 </sst>
 </file>
@@ -417,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C455"/>
+  <dimension ref="A1:D456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="C457" sqref="C457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -428,7 +431,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -438,151 +441,249 @@
       <c r="C1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>43448</v>
       </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
       <c r="C2">
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
       <c r="C3">
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
       <c r="C4">
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
       <c r="C5">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
       <c r="C6">
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
       <c r="C7">
         <v>409</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
       <c r="C8">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
       <c r="C9">
         <v>416</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
       <c r="C10">
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
       <c r="C11">
         <v>425</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
       <c r="C12">
         <v>419</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
       <c r="C13">
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
       <c r="C14">
         <v>411</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
       <c r="C15">
         <v>436</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
       <c r="C16">
         <v>409</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
       <c r="C17">
         <v>416</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
       <c r="C18">
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
       <c r="C19">
         <v>486</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
       <c r="C20">
         <v>462</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
       <c r="C21">
         <v>425</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
       <c r="C23">
         <v>399</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
+      <c r="D23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
       <c r="C24">
         <v>401</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
       <c r="C25">
         <v>419</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
       <c r="C26">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
       <c r="C27">
         <v>411</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
       <c r="C28">
         <v>436</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
       <c r="C29">
         <v>409</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
       <c r="C30">
         <v>416</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:4">
       <c r="B31" t="s">
         <v>0</v>
       </c>
@@ -590,7 +691,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:4">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -598,12 +699,15 @@
         <v>462</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="B33" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="B34" t="s">
         <v>3</v>
       </c>
@@ -611,7 +715,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -619,7 +723,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="B36" t="s">
         <v>5</v>
       </c>
@@ -627,7 +731,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="B37" t="s">
         <v>6</v>
       </c>
@@ -635,7 +739,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="B38" t="s">
         <v>7</v>
       </c>
@@ -643,7 +747,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="B39" t="s">
         <v>8</v>
       </c>
@@ -651,7 +755,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>43449</v>
       </c>
@@ -662,7 +766,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="B41" t="s">
         <v>8</v>
       </c>
@@ -670,7 +774,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="B42" t="s">
         <v>0</v>
       </c>
@@ -678,7 +782,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -686,15 +790,18 @@
         <v>462</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44">
         <v>399</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -702,7 +809,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="B46" t="s">
         <v>9</v>
       </c>
@@ -710,7 +817,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="B47" t="s">
         <v>3</v>
       </c>
@@ -718,7 +825,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="B48" t="s">
         <v>11</v>
       </c>
@@ -726,12 +833,15 @@
         <v>416</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:4">
       <c r="B49" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="2:3">
+      <c r="C49">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
       <c r="B50" t="s">
         <v>12</v>
       </c>
@@ -739,7 +849,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:4">
       <c r="B51" t="s">
         <v>7</v>
       </c>
@@ -747,7 +857,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:4">
       <c r="B52" t="s">
         <v>5</v>
       </c>
@@ -755,7 +865,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:4">
       <c r="B53" t="s">
         <v>0</v>
       </c>
@@ -763,7 +873,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:4">
       <c r="B54" t="s">
         <v>8</v>
       </c>
@@ -771,7 +881,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:4">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -779,7 +889,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:4">
       <c r="B56" t="s">
         <v>11</v>
       </c>
@@ -787,12 +897,15 @@
         <v>416</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:4">
       <c r="B57" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="2:3">
+      <c r="C57">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
       <c r="B58" t="s">
         <v>9</v>
       </c>
@@ -800,15 +913,18 @@
         <v>486</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:4">
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59">
         <v>399</v>
       </c>
-    </row>
-    <row r="60" spans="2:3">
+      <c r="D59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
       <c r="B60" t="s">
         <v>7</v>
       </c>
@@ -816,7 +932,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:4">
       <c r="B61" t="s">
         <v>12</v>
       </c>
@@ -824,7 +940,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:4">
       <c r="B62" t="s">
         <v>5</v>
       </c>
@@ -832,7 +948,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:4">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -840,7 +956,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:4">
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -3856,7 +3972,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="449" spans="2:3">
+    <row r="449" spans="2:4">
       <c r="B449" t="s">
         <v>11</v>
       </c>
@@ -3864,7 +3980,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="450" spans="2:3">
+    <row r="450" spans="2:4">
       <c r="B450" t="s">
         <v>15</v>
       </c>
@@ -3872,7 +3988,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="451" spans="2:3">
+    <row r="451" spans="2:4">
       <c r="B451" t="s">
         <v>3</v>
       </c>
@@ -3880,7 +3996,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="452" spans="2:3">
+    <row r="452" spans="2:4">
       <c r="B452" t="s">
         <v>0</v>
       </c>
@@ -3888,7 +4004,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="453" spans="2:3">
+    <row r="453" spans="2:4">
       <c r="B453" t="s">
         <v>10</v>
       </c>
@@ -3896,7 +4012,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="454" spans="2:3">
+    <row r="454" spans="2:4">
       <c r="B454" t="s">
         <v>17</v>
       </c>
@@ -3904,9 +4020,23 @@
         <v>405</v>
       </c>
     </row>
-    <row r="455" spans="2:3">
+    <row r="455" spans="2:4">
       <c r="B455" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="C455">
+        <v>450</v>
+      </c>
+      <c r="D455">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="456" spans="2:4">
+      <c r="B456" t="s">
+        <v>2</v>
+      </c>
+      <c r="C456">
+        <v>538</v>
       </c>
     </row>
   </sheetData>

--- a/bill2/kansepur bill2.xlsx
+++ b/bill2/kansepur bill2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="28">
   <si>
     <t>jabir</t>
   </si>
@@ -89,6 +89,18 @@
   <si>
     <t>kaat</t>
   </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>wajid</t>
+  </si>
+  <si>
+    <t>poclain</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -123,9 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="C457" sqref="C457"/>
+    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="C459" sqref="C459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -964,7 +978,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="B65" t="s">
         <v>10</v>
       </c>
@@ -972,7 +986,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="B66" t="s">
         <v>1</v>
       </c>
@@ -980,7 +994,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="B67" t="s">
         <v>8</v>
       </c>
@@ -988,7 +1002,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="B68" t="s">
         <v>4</v>
       </c>
@@ -996,7 +1010,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="B69" t="s">
         <v>9</v>
       </c>
@@ -1004,12 +1018,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="B70" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="C70">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="B71" t="s">
         <v>11</v>
       </c>
@@ -1017,7 +1034,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="B72" t="s">
         <v>6</v>
       </c>
@@ -1025,7 +1042,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="B73" t="s">
         <v>12</v>
       </c>
@@ -1033,7 +1050,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="B74" t="s">
         <v>3</v>
       </c>
@@ -1041,7 +1058,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="B75" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +1066,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="B76" t="s">
         <v>10</v>
       </c>
@@ -1057,7 +1074,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="B77" t="s">
         <v>5</v>
       </c>
@@ -1065,7 +1082,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="B78" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1090,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -1081,7 +1098,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>43450</v>
       </c>
@@ -1091,69 +1108,99 @@
       <c r="C80">
         <v>389</v>
       </c>
-    </row>
-    <row r="81" spans="2:3">
+      <c r="D80">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
       <c r="B81" t="s">
         <v>4</v>
       </c>
       <c r="C81">
         <v>370</v>
       </c>
-    </row>
-    <row r="82" spans="2:3">
+      <c r="D81">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
       <c r="B82" t="s">
         <v>9</v>
       </c>
       <c r="C82">
         <v>456</v>
       </c>
-    </row>
-    <row r="83" spans="2:3">
+      <c r="D82">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
       <c r="B83" t="s">
         <v>10</v>
       </c>
       <c r="C83">
         <v>379</v>
       </c>
-    </row>
-    <row r="84" spans="2:3">
+      <c r="D83">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
       <c r="B84" t="s">
         <v>1</v>
       </c>
       <c r="C84">
         <v>432</v>
       </c>
-    </row>
-    <row r="85" spans="2:3">
+      <c r="D84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
       <c r="B85" t="s">
         <v>8</v>
       </c>
       <c r="C85">
         <v>381</v>
       </c>
-    </row>
-    <row r="86" spans="2:3">
+      <c r="D85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
       <c r="B86" t="s">
         <v>14</v>
       </c>
       <c r="C86">
         <v>406</v>
       </c>
-    </row>
-    <row r="87" spans="2:3">
+      <c r="D86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
       <c r="B87" t="s">
         <v>12</v>
       </c>
       <c r="C87">
         <v>508</v>
       </c>
-    </row>
-    <row r="88" spans="2:3">
+      <c r="D87">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
       <c r="B88" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="2:3">
+      <c r="C88">
+        <v>330</v>
+      </c>
+      <c r="D88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
       <c r="B89" t="s">
         <v>13</v>
       </c>
@@ -1161,116 +1208,161 @@
         <v>380</v>
       </c>
     </row>
-    <row r="90" spans="2:3">
+    <row r="90" spans="2:4">
       <c r="B90" t="s">
         <v>3</v>
       </c>
       <c r="C90">
         <v>395</v>
       </c>
-    </row>
-    <row r="91" spans="2:3">
+      <c r="D90">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
       <c r="B91" t="s">
         <v>7</v>
       </c>
       <c r="C91">
         <v>371</v>
       </c>
-    </row>
-    <row r="92" spans="2:3">
+      <c r="D91">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
       <c r="B92" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="2:3">
+      <c r="C92">
+        <v>470</v>
+      </c>
+      <c r="D92">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93">
         <v>389</v>
       </c>
-    </row>
-    <row r="94" spans="2:3">
+      <c r="D93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
       <c r="B94" t="s">
         <v>4</v>
       </c>
       <c r="C94">
         <v>380</v>
       </c>
-    </row>
-    <row r="95" spans="2:3">
+      <c r="D94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
       <c r="B95" t="s">
         <v>11</v>
       </c>
       <c r="C95">
         <v>386</v>
       </c>
-    </row>
-    <row r="96" spans="2:3">
+      <c r="D95">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
       <c r="B96" t="s">
         <v>0</v>
       </c>
       <c r="C96">
         <v>409</v>
       </c>
-    </row>
-    <row r="97" spans="2:3">
+      <c r="D96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
       <c r="B97" t="s">
         <v>10</v>
       </c>
       <c r="C97">
         <v>399</v>
       </c>
-    </row>
-    <row r="98" spans="2:3">
+      <c r="D97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
       <c r="B98" t="s">
         <v>8</v>
       </c>
       <c r="C98">
         <v>401</v>
       </c>
-    </row>
-    <row r="99" spans="2:3">
+      <c r="D98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
       <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="C99">
         <v>391</v>
       </c>
-    </row>
-    <row r="100" spans="2:3">
+      <c r="D99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
       <c r="B100" t="s">
         <v>9</v>
       </c>
       <c r="C100">
         <v>476</v>
       </c>
-    </row>
-    <row r="101" spans="2:3">
+      <c r="D100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
       <c r="B101" t="s">
         <v>1</v>
       </c>
       <c r="C101">
         <v>452</v>
       </c>
-    </row>
-    <row r="102" spans="2:3">
+      <c r="D101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
       <c r="B102" t="s">
         <v>14</v>
       </c>
       <c r="C102">
         <v>426</v>
       </c>
-    </row>
-    <row r="103" spans="2:3">
+      <c r="D102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
       <c r="B103" t="s">
         <v>12</v>
       </c>
       <c r="C103">
         <v>528</v>
       </c>
-    </row>
-    <row r="104" spans="2:3">
+      <c r="D103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
       <c r="B104" t="s">
         <v>3</v>
       </c>
@@ -1278,25 +1370,37 @@
         <v>425</v>
       </c>
     </row>
-    <row r="105" spans="2:3">
+    <row r="105" spans="2:4">
       <c r="B105" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="2:3">
+      <c r="C105">
+        <v>490</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
       <c r="B106" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="2:3">
+      <c r="C106">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
       <c r="B107" t="s">
         <v>4</v>
       </c>
       <c r="C107">
         <v>380</v>
       </c>
-    </row>
-    <row r="108" spans="2:3">
+      <c r="D107">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
       <c r="B108" t="s">
         <v>13</v>
       </c>
@@ -1304,7 +1408,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="109" spans="2:3">
+    <row r="109" spans="2:4">
       <c r="B109" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1416,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="110" spans="2:3">
+    <row r="110" spans="2:4">
       <c r="B110" t="s">
         <v>11</v>
       </c>
@@ -1320,7 +1424,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="111" spans="2:3">
+    <row r="111" spans="2:4">
       <c r="B111" t="s">
         <v>10</v>
       </c>
@@ -1328,12 +1432,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="112" spans="2:3">
+    <row r="112" spans="2:4">
       <c r="B112" t="s">
         <v>6</v>
       </c>
       <c r="C112">
         <v>399</v>
+      </c>
+      <c r="D112">
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1404,6 +1511,9 @@
       <c r="B121" t="s">
         <v>2</v>
       </c>
+      <c r="C121">
+        <v>360</v>
+      </c>
     </row>
     <row r="122" spans="1:3">
       <c r="B122" t="s">
@@ -1433,6 +1543,9 @@
       <c r="B125" t="s">
         <v>5</v>
       </c>
+      <c r="C125">
+        <v>500</v>
+      </c>
     </row>
     <row r="126" spans="1:3">
       <c r="B126" t="s">
@@ -1461,7 +1574,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
+    <row r="129" spans="2:4">
       <c r="B129" t="s">
         <v>13</v>
       </c>
@@ -1469,7 +1582,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="130" spans="2:3">
+    <row r="130" spans="2:4">
       <c r="B130" t="s">
         <v>10</v>
       </c>
@@ -1477,7 +1590,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="131" spans="2:3">
+    <row r="131" spans="2:4">
       <c r="B131" t="s">
         <v>8</v>
       </c>
@@ -1485,15 +1598,18 @@
         <v>411</v>
       </c>
     </row>
-    <row r="132" spans="2:3">
+    <row r="132" spans="2:4">
       <c r="B132" t="s">
         <v>4</v>
       </c>
       <c r="C132">
         <v>390</v>
       </c>
-    </row>
-    <row r="133" spans="2:3">
+      <c r="D132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4">
       <c r="B133" t="s">
         <v>14</v>
       </c>
@@ -1501,7 +1617,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="134" spans="2:3">
+    <row r="134" spans="2:4">
       <c r="B134" t="s">
         <v>9</v>
       </c>
@@ -1509,7 +1625,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="135" spans="2:3">
+    <row r="135" spans="2:4">
       <c r="B135" t="s">
         <v>7</v>
       </c>
@@ -1517,12 +1633,15 @@
         <v>401</v>
       </c>
     </row>
-    <row r="136" spans="2:3">
+    <row r="136" spans="2:4">
       <c r="B136" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="2:3">
+      <c r="C136">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -1530,7 +1649,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
+    <row r="138" spans="2:4">
       <c r="B138" t="s">
         <v>6</v>
       </c>
@@ -1538,7 +1657,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="139" spans="2:3">
+    <row r="139" spans="2:4">
       <c r="B139" t="s">
         <v>12</v>
       </c>
@@ -1546,7 +1665,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="140" spans="2:3">
+    <row r="140" spans="2:4">
       <c r="B140" t="s">
         <v>11</v>
       </c>
@@ -1554,7 +1673,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="141" spans="2:3">
+    <row r="141" spans="2:4">
       <c r="B141" t="s">
         <v>5</v>
       </c>
@@ -1562,7 +1681,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="142" spans="2:3">
+    <row r="142" spans="2:4">
       <c r="B142" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1689,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="143" spans="2:3">
+    <row r="143" spans="2:4">
       <c r="B143" t="s">
         <v>1</v>
       </c>
@@ -1578,7 +1697,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="144" spans="2:3">
+    <row r="144" spans="2:4">
       <c r="B144" t="s">
         <v>8</v>
       </c>
@@ -1647,6 +1766,9 @@
       <c r="B152" t="s">
         <v>2</v>
       </c>
+      <c r="C152">
+        <v>360</v>
+      </c>
     </row>
     <row r="153" spans="1:3">
       <c r="B153" t="s">
@@ -1712,7 +1834,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:4">
       <c r="B161" t="s">
         <v>6</v>
       </c>
@@ -1720,12 +1842,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:4">
       <c r="B162" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="C162">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="B163" t="s">
         <v>5</v>
       </c>
@@ -1733,7 +1858,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:4">
       <c r="B164" t="s">
         <v>7</v>
       </c>
@@ -1741,7 +1866,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:4">
       <c r="B165" t="s">
         <v>8</v>
       </c>
@@ -1749,7 +1874,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:4">
       <c r="B166" t="s">
         <v>12</v>
       </c>
@@ -1757,7 +1882,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:4">
       <c r="A167" s="1">
         <v>43452</v>
       </c>
@@ -1768,7 +1893,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:4">
       <c r="B168" t="s">
         <v>0</v>
       </c>
@@ -1776,7 +1901,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:4">
       <c r="B169" t="s">
         <v>1</v>
       </c>
@@ -1784,7 +1909,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:4">
       <c r="B170" t="s">
         <v>5</v>
       </c>
@@ -1792,7 +1917,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:4">
       <c r="B171" t="s">
         <v>8</v>
       </c>
@@ -1800,7 +1925,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:4">
       <c r="B172" t="s">
         <v>13</v>
       </c>
@@ -1808,7 +1933,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:4">
       <c r="B173" t="s">
         <v>9</v>
       </c>
@@ -1816,7 +1941,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:4">
       <c r="B174" t="s">
         <v>14</v>
       </c>
@@ -1824,7 +1949,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:4">
       <c r="B175" t="s">
         <v>11</v>
       </c>
@@ -1832,15 +1957,18 @@
         <v>416</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:4">
       <c r="B176" t="s">
         <v>6</v>
       </c>
       <c r="C176">
         <v>409</v>
       </c>
-    </row>
-    <row r="177" spans="2:3">
+      <c r="D176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4">
       <c r="B177" t="s">
         <v>7</v>
       </c>
@@ -1848,7 +1976,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="178" spans="2:3">
+    <row r="178" spans="2:4">
       <c r="B178" t="s">
         <v>13</v>
       </c>
@@ -1856,12 +1984,15 @@
         <v>538</v>
       </c>
     </row>
-    <row r="179" spans="2:3">
+    <row r="179" spans="2:4">
       <c r="B179" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="2:3">
+      <c r="C179">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -1869,7 +2000,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="181" spans="2:3">
+    <row r="181" spans="2:4">
       <c r="B181" t="s">
         <v>0</v>
       </c>
@@ -1877,7 +2008,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="182" spans="2:3">
+    <row r="182" spans="2:4">
       <c r="B182" t="s">
         <v>1</v>
       </c>
@@ -1885,7 +2016,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="183" spans="2:3">
+    <row r="183" spans="2:4">
       <c r="B183" t="s">
         <v>8</v>
       </c>
@@ -1893,15 +2024,18 @@
         <v>411</v>
       </c>
     </row>
-    <row r="184" spans="2:3">
+    <row r="184" spans="2:4">
       <c r="B184" t="s">
         <v>5</v>
       </c>
       <c r="C184">
         <v>480</v>
       </c>
-    </row>
-    <row r="185" spans="2:3">
+      <c r="D184">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4">
       <c r="B185" t="s">
         <v>15</v>
       </c>
@@ -1909,15 +2043,18 @@
         <v>470</v>
       </c>
     </row>
-    <row r="186" spans="2:3">
+    <row r="186" spans="2:4">
       <c r="B186" t="s">
         <v>7</v>
       </c>
       <c r="C186">
         <v>386</v>
       </c>
-    </row>
-    <row r="187" spans="2:3">
+      <c r="D186">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4">
       <c r="B187" t="s">
         <v>13</v>
       </c>
@@ -1925,15 +2062,18 @@
         <v>380</v>
       </c>
     </row>
-    <row r="188" spans="2:3">
+    <row r="188" spans="2:4">
       <c r="B188" t="s">
         <v>9</v>
       </c>
       <c r="C188">
         <v>476</v>
       </c>
-    </row>
-    <row r="189" spans="2:3">
+      <c r="D188">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4">
       <c r="B189" t="s">
         <v>6</v>
       </c>
@@ -1941,15 +2081,18 @@
         <v>419</v>
       </c>
     </row>
-    <row r="190" spans="2:3">
+    <row r="190" spans="2:4">
       <c r="B190" t="s">
         <v>12</v>
       </c>
       <c r="C190">
         <v>518</v>
       </c>
-    </row>
-    <row r="191" spans="2:3">
+      <c r="D190">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4">
       <c r="B191" t="s">
         <v>11</v>
       </c>
@@ -1957,9 +2100,12 @@
         <v>416</v>
       </c>
     </row>
-    <row r="192" spans="2:3">
+    <row r="192" spans="2:4">
       <c r="B192" t="s">
         <v>2</v>
+      </c>
+      <c r="C192">
+        <v>360</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2038,6 +2184,9 @@
       <c r="B202" t="s">
         <v>2</v>
       </c>
+      <c r="C202">
+        <v>360</v>
+      </c>
     </row>
     <row r="203" spans="1:3">
       <c r="B203" t="s">
@@ -2166,6 +2315,9 @@
       <c r="B218" t="s">
         <v>2</v>
       </c>
+      <c r="C218">
+        <v>360</v>
+      </c>
     </row>
     <row r="219" spans="2:3">
       <c r="B219" t="s">
@@ -2274,6 +2426,9 @@
     <row r="232" spans="1:3">
       <c r="B232" t="s">
         <v>2</v>
+      </c>
+      <c r="C232">
+        <v>360</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2313,6 +2468,9 @@
       <c r="B237" t="s">
         <v>3</v>
       </c>
+      <c r="C237">
+        <v>517</v>
+      </c>
     </row>
     <row r="238" spans="1:3">
       <c r="B238" t="s">
@@ -2473,11 +2631,17 @@
       <c r="B257" t="s">
         <v>2</v>
       </c>
+      <c r="C257">
+        <v>360</v>
+      </c>
     </row>
     <row r="258" spans="2:3">
       <c r="B258" t="s">
         <v>3</v>
       </c>
+      <c r="C258">
+        <v>517</v>
+      </c>
     </row>
     <row r="259" spans="2:3">
       <c r="B259" t="s">
@@ -2595,6 +2759,9 @@
       <c r="B273" t="s">
         <v>2</v>
       </c>
+      <c r="C273">
+        <v>360</v>
+      </c>
     </row>
     <row r="274" spans="1:3">
       <c r="B274" t="s">
@@ -2616,6 +2783,9 @@
       <c r="B276" t="s">
         <v>3</v>
       </c>
+      <c r="C276">
+        <v>517</v>
+      </c>
     </row>
     <row r="277" spans="1:3">
       <c r="B277" t="s">
@@ -2760,6 +2930,9 @@
       <c r="B294" t="s">
         <v>2</v>
       </c>
+      <c r="C294">
+        <v>360</v>
+      </c>
     </row>
     <row r="295" spans="2:3">
       <c r="B295" t="s">
@@ -2773,6 +2946,9 @@
       <c r="B296" t="s">
         <v>3</v>
       </c>
+      <c r="C296">
+        <v>517</v>
+      </c>
     </row>
     <row r="297" spans="2:3">
       <c r="B297" t="s">
@@ -2885,6 +3061,9 @@
       <c r="B310" t="s">
         <v>2</v>
       </c>
+      <c r="C310">
+        <v>360</v>
+      </c>
     </row>
     <row r="311" spans="1:3">
       <c r="B311" t="s">
@@ -3018,6 +3197,9 @@
       <c r="B327" t="s">
         <v>2</v>
       </c>
+      <c r="C327">
+        <v>360</v>
+      </c>
     </row>
     <row r="328" spans="2:3">
       <c r="B328" t="s">
@@ -3151,6 +3333,9 @@
       <c r="B344" t="s">
         <v>3</v>
       </c>
+      <c r="C344">
+        <v>517</v>
+      </c>
     </row>
     <row r="345" spans="1:3">
       <c r="B345" t="s">
@@ -3199,6 +3384,9 @@
       <c r="B350" t="s">
         <v>2</v>
       </c>
+      <c r="C350">
+        <v>538</v>
+      </c>
     </row>
     <row r="351" spans="1:3">
       <c r="B351" t="s">
@@ -3351,6 +3539,9 @@
       <c r="B369" t="s">
         <v>2</v>
       </c>
+      <c r="C369">
+        <v>538</v>
+      </c>
     </row>
     <row r="370" spans="1:3">
       <c r="B370" t="s">
@@ -3383,6 +3574,9 @@
       <c r="B373" t="s">
         <v>2</v>
       </c>
+      <c r="C373">
+        <v>538</v>
+      </c>
     </row>
     <row r="374" spans="1:3">
       <c r="B374" t="s">
@@ -3484,6 +3678,9 @@
       <c r="B386" t="s">
         <v>2</v>
       </c>
+      <c r="C386">
+        <v>538</v>
+      </c>
     </row>
     <row r="387" spans="1:3">
       <c r="B387" t="s">
@@ -3529,6 +3726,9 @@
       <c r="B392" t="s">
         <v>2</v>
       </c>
+      <c r="C392">
+        <v>538</v>
+      </c>
     </row>
     <row r="393" spans="1:3">
       <c r="B393" t="s">
@@ -3601,6 +3801,9 @@
       <c r="B401" t="s">
         <v>2</v>
       </c>
+      <c r="C401">
+        <v>538</v>
+      </c>
     </row>
     <row r="402" spans="2:3">
       <c r="B402" t="s">
@@ -3734,6 +3937,9 @@
       <c r="B418" t="s">
         <v>2</v>
       </c>
+      <c r="C418">
+        <v>538</v>
+      </c>
     </row>
     <row r="419" spans="1:3">
       <c r="B419" t="s">
@@ -3862,6 +4068,9 @@
       <c r="B434" t="s">
         <v>2</v>
       </c>
+      <c r="C434">
+        <v>538</v>
+      </c>
     </row>
     <row r="435" spans="2:3">
       <c r="B435" t="s">
@@ -3954,6 +4163,9 @@
     <row r="446" spans="2:3">
       <c r="B446" t="s">
         <v>2</v>
+      </c>
+      <c r="C446">
+        <v>538</v>
       </c>
     </row>
     <row r="447" spans="2:3">
@@ -4046,24 +4258,448 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2">
+        <v>43813</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43814</v>
+      </c>
+      <c r="D1" s="2">
+        <v>43815</v>
+      </c>
+      <c r="E1" s="2">
+        <v>43816</v>
+      </c>
+      <c r="F1" s="2">
+        <v>43817</v>
+      </c>
+      <c r="G1" s="2">
+        <v>43818</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2500</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>2000</v>
+      </c>
+      <c r="F4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>2500</v>
+      </c>
+      <c r="F5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1500</v>
+      </c>
+      <c r="C6">
+        <v>1500</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2000</v>
+      </c>
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>2000</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1500</v>
+      </c>
+      <c r="F9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2500</v>
+      </c>
+      <c r="C10">
+        <v>2000</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+      <c r="E10">
+        <v>2000</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2500</v>
+      </c>
+      <c r="C11">
+        <v>2500</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2500</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2250</v>
+      </c>
+      <c r="C12">
+        <v>2000</v>
+      </c>
+      <c r="D12">
+        <v>2000</v>
+      </c>
+      <c r="E12">
+        <v>2000</v>
+      </c>
+      <c r="F12">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>1500</v>
+      </c>
+      <c r="C13">
+        <v>1710</v>
+      </c>
+      <c r="D13">
+        <v>2000</v>
+      </c>
+      <c r="E13">
+        <v>1370</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>2500</v>
+      </c>
+      <c r="C14">
+        <v>2000</v>
+      </c>
+      <c r="D14">
+        <v>2000</v>
+      </c>
+      <c r="E14">
+        <v>2000</v>
+      </c>
+      <c r="F14">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2000</v>
+      </c>
+      <c r="C15">
+        <v>2500</v>
+      </c>
+      <c r="D15">
+        <v>2000</v>
+      </c>
+      <c r="F15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2370</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2000</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2000</v>
+      </c>
+      <c r="E18">
+        <v>2000</v>
+      </c>
+      <c r="F18">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>2206</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2000</v>
+      </c>
+      <c r="F19">
+        <v>2000</v>
+      </c>
+      <c r="G19">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>3500</v>
+      </c>
+      <c r="C20">
+        <v>3500</v>
+      </c>
+      <c r="D20">
+        <v>3500</v>
+      </c>
+      <c r="E20">
+        <v>3500</v>
+      </c>
+      <c r="F20">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <f>SUM(B6:B20)</f>
+        <v>28826</v>
+      </c>
+      <c r="C21">
+        <f>SUM(C4:C20)</f>
+        <v>28210</v>
+      </c>
+      <c r="D21">
+        <f>SUM(D4:D20)</f>
+        <v>23500</v>
+      </c>
+      <c r="E21">
+        <f>SUM(E4:E20)</f>
+        <v>21370</v>
+      </c>
+      <c r="F21">
+        <f>SUM(F4:F20)</f>
+        <v>25154</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bill2/kansepur bill2.xlsx
+++ b/bill2/kansepur bill2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="30">
   <si>
     <t>jabir</t>
   </si>
@@ -99,7 +99,13 @@
     <t>poclain</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Zztotal</t>
+  </si>
+  <si>
+    <t>sabir jcb</t>
+  </si>
+  <si>
+    <t>cash</t>
   </si>
 </sst>
 </file>
@@ -434,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D456"/>
+  <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="C459" sqref="C459"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="C492" sqref="C492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1839,7 +1845,7 @@
         <v>6</v>
       </c>
       <c r="C161">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3385,7 +3391,7 @@
         <v>2</v>
       </c>
       <c r="C350">
-        <v>538</v>
+        <v>360</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -3666,7 +3672,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:4">
       <c r="B385" t="s">
         <v>9</v>
       </c>
@@ -3674,7 +3680,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:4">
       <c r="B386" t="s">
         <v>2</v>
       </c>
@@ -3682,7 +3688,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:4">
       <c r="B387" t="s">
         <v>3</v>
       </c>
@@ -3690,7 +3696,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:4">
       <c r="B388" t="s">
         <v>19</v>
       </c>
@@ -3698,7 +3704,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:4">
       <c r="B389" t="s">
         <v>17</v>
       </c>
@@ -3706,7 +3712,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:4">
       <c r="B390" t="s">
         <v>12</v>
       </c>
@@ -3714,7 +3720,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:4">
       <c r="B391" t="s">
         <v>10</v>
       </c>
@@ -3722,15 +3728,18 @@
         <v>420</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:4">
       <c r="B392" t="s">
         <v>2</v>
       </c>
       <c r="C392">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3">
+        <v>488</v>
+      </c>
+      <c r="D392">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
       <c r="B393" t="s">
         <v>3</v>
       </c>
@@ -3738,7 +3747,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:4">
       <c r="B394" t="s">
         <v>11</v>
       </c>
@@ -3746,15 +3755,18 @@
         <v>416</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:4">
       <c r="B395" t="s">
         <v>9</v>
       </c>
       <c r="C395">
         <v>456</v>
       </c>
-    </row>
-    <row r="396" spans="1:3">
+      <c r="D395">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
       <c r="B396" t="s">
         <v>10</v>
       </c>
@@ -3762,7 +3774,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:4">
       <c r="B397" t="s">
         <v>6</v>
       </c>
@@ -3770,7 +3782,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:4">
       <c r="A398" s="1">
         <v>43463</v>
       </c>
@@ -3781,7 +3793,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:4">
       <c r="B399" t="s">
         <v>17</v>
       </c>
@@ -3789,7 +3801,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:4">
       <c r="B400" t="s">
         <v>3</v>
       </c>
@@ -4249,6 +4261,292 @@
       </c>
       <c r="C456">
         <v>538</v>
+      </c>
+    </row>
+    <row r="457" spans="2:4">
+      <c r="B457" t="s">
+        <v>17</v>
+      </c>
+      <c r="C457">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="458" spans="2:4">
+      <c r="B458" t="s">
+        <v>17</v>
+      </c>
+      <c r="C458">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="459" spans="2:4">
+      <c r="B459" t="s">
+        <v>10</v>
+      </c>
+      <c r="C459">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="460" spans="2:4">
+      <c r="B460" t="s">
+        <v>10</v>
+      </c>
+      <c r="C460">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="461" spans="2:4">
+      <c r="B461" t="s">
+        <v>3</v>
+      </c>
+      <c r="C461">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="462" spans="2:4">
+      <c r="B462" t="s">
+        <v>3</v>
+      </c>
+      <c r="C462">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="463" spans="2:4">
+      <c r="B463" t="s">
+        <v>19</v>
+      </c>
+      <c r="C463">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="464" spans="2:4">
+      <c r="B464" t="s">
+        <v>19</v>
+      </c>
+      <c r="C464">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3">
+      <c r="B465" t="s">
+        <v>6</v>
+      </c>
+      <c r="C465">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3">
+      <c r="B466" t="s">
+        <v>6</v>
+      </c>
+      <c r="C466">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3">
+      <c r="B467" t="s">
+        <v>11</v>
+      </c>
+      <c r="C467">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3">
+      <c r="B468" t="s">
+        <v>11</v>
+      </c>
+      <c r="C468">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3">
+      <c r="B469" t="s">
+        <v>11</v>
+      </c>
+      <c r="C469">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3">
+      <c r="B470" t="s">
+        <v>12</v>
+      </c>
+      <c r="C470">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3">
+      <c r="B471" t="s">
+        <v>12</v>
+      </c>
+      <c r="C471">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3">
+      <c r="B472" t="s">
+        <v>12</v>
+      </c>
+      <c r="C472">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3">
+      <c r="B473" t="s">
+        <v>9</v>
+      </c>
+      <c r="C473">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3">
+      <c r="B474" t="s">
+        <v>9</v>
+      </c>
+      <c r="C474">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3">
+      <c r="B475" t="s">
+        <v>9</v>
+      </c>
+      <c r="C475">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3">
+      <c r="B476" t="s">
+        <v>5</v>
+      </c>
+      <c r="C476">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="477" spans="2:3">
+      <c r="B477" t="s">
+        <v>5</v>
+      </c>
+      <c r="C477">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3">
+      <c r="B478" t="s">
+        <v>1</v>
+      </c>
+      <c r="C478">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="479" spans="2:3">
+      <c r="B479" t="s">
+        <v>1</v>
+      </c>
+      <c r="C479">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3">
+      <c r="B480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C480">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3">
+      <c r="B481" t="s">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3">
+      <c r="B482" t="s">
+        <v>0</v>
+      </c>
+      <c r="C482">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3">
+      <c r="B483" t="s">
+        <v>6</v>
+      </c>
+      <c r="C483">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3">
+      <c r="B484" t="s">
+        <v>19</v>
+      </c>
+      <c r="C484">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3">
+      <c r="B485" t="s">
+        <v>15</v>
+      </c>
+      <c r="C485">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3">
+      <c r="B486" t="s">
+        <v>15</v>
+      </c>
+      <c r="C486">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3">
+      <c r="B487" t="s">
+        <v>15</v>
+      </c>
+      <c r="C487">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3">
+      <c r="B488" t="s">
+        <v>16</v>
+      </c>
+      <c r="C488">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3">
+      <c r="B489" t="s">
+        <v>2</v>
+      </c>
+      <c r="C489">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3">
+      <c r="B490" t="s">
+        <v>2</v>
+      </c>
+      <c r="C490">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3">
+      <c r="B491" t="s">
+        <v>2</v>
+      </c>
+      <c r="C491">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3">
+      <c r="C492">
+        <f>SUM(C2:C491)</f>
+        <v>214374</v>
       </c>
     </row>
   </sheetData>
@@ -4258,15 +4556,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -4288,394 +4586,1328 @@
       <c r="G1" s="2">
         <v>43818</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2">
+        <v>43819</v>
+      </c>
+      <c r="I1" s="2">
+        <v>43820</v>
+      </c>
+      <c r="J1" s="2">
+        <v>43821</v>
+      </c>
+      <c r="K1" s="2">
+        <v>43822</v>
+      </c>
+      <c r="L1" s="2">
+        <v>43826</v>
+      </c>
+      <c r="M1" s="2">
+        <v>43827</v>
+      </c>
+      <c r="N1" s="2">
+        <v>43828</v>
+      </c>
+      <c r="O1" s="2">
+        <v>43829</v>
+      </c>
+      <c r="P1" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1500</v>
+      </c>
+      <c r="C2">
+        <v>1500</v>
+      </c>
+      <c r="D2">
+        <v>2000</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2000</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2000</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1500</v>
+      </c>
+      <c r="N2">
+        <v>2000</v>
+      </c>
+      <c r="O2">
+        <v>2000</v>
+      </c>
+      <c r="P2">
+        <v>2000</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(B2:P2)</f>
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>SUM(B3:P3)</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2500</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>2000</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1500</v>
+      </c>
+      <c r="H4">
+        <v>1500</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1500</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2250</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>2000</v>
+      </c>
+      <c r="F5">
+        <v>1400</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2000</v>
+      </c>
+      <c r="J5">
+        <v>2000</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>SUM(B5:P5)</f>
+        <v>13650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2020</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>2000</v>
+      </c>
+      <c r="M6">
+        <v>2000</v>
+      </c>
+      <c r="N6">
+        <v>2000</v>
+      </c>
+      <c r="O6">
+        <v>2000</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>SUM(B6:P6)</f>
+        <v>16020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2500</v>
+      </c>
+      <c r="C7">
+        <v>2500</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2500</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3000</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>3000</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2000</v>
+      </c>
+      <c r="N7">
+        <v>2000</v>
+      </c>
+      <c r="O7">
+        <v>2000</v>
+      </c>
+      <c r="P7">
+        <v>2000</v>
+      </c>
+      <c r="Q7">
+        <f>SUM(Q5:Q6)</f>
+        <v>29670</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1500</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+      <c r="G8">
+        <v>2000</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1700</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1800</v>
+      </c>
+      <c r="L8">
+        <v>2000</v>
+      </c>
+      <c r="M8">
+        <v>1500</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2000</v>
+      </c>
+      <c r="P8">
+        <v>2000</v>
+      </c>
+      <c r="Q8">
+        <f>SUM(B8:P8)</f>
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2370</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2000</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2000</v>
+      </c>
+      <c r="J9">
+        <v>1500</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2000</v>
+      </c>
+      <c r="N9">
+        <v>2500</v>
+      </c>
+      <c r="O9">
+        <v>2500</v>
+      </c>
+      <c r="P9">
+        <v>2000</v>
+      </c>
+      <c r="Q9">
+        <f>SUM(B9:P9)</f>
+        <v>18870</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+      <c r="E10">
+        <v>2500</v>
+      </c>
+      <c r="F10">
+        <v>2000</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1500</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2000</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2000</v>
+      </c>
+      <c r="P10">
+        <v>2000</v>
+      </c>
+      <c r="Q10">
+        <f>SUM(Q8:Q9)</f>
+        <v>39370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2000</v>
+      </c>
+      <c r="H11">
+        <v>2000</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>2000</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f>SUM(B11:P11)</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1500</v>
+      </c>
+      <c r="P12">
+        <v>1500</v>
+      </c>
+      <c r="Q12">
+        <f>SUM(B12:P12)</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>3500</v>
+      </c>
+      <c r="C13">
+        <v>3500</v>
+      </c>
+      <c r="D13">
+        <v>7000</v>
+      </c>
+      <c r="E13">
+        <v>3500</v>
+      </c>
+      <c r="F13">
+        <v>3500</v>
+      </c>
+      <c r="G13">
+        <v>3500</v>
+      </c>
+      <c r="H13">
+        <v>3500</v>
+      </c>
+      <c r="I13">
+        <v>3500</v>
+      </c>
+      <c r="J13">
+        <v>3500</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N13" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O13" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P13" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q13">
+        <f>SUM(B13:P13)</f>
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
         <v>2500</v>
       </c>
-      <c r="D4">
-        <v>2000</v>
-      </c>
-      <c r="E4">
-        <v>2000</v>
-      </c>
-      <c r="F4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D5">
-        <v>2000</v>
-      </c>
-      <c r="E5">
+      <c r="D14">
+        <v>2000</v>
+      </c>
+      <c r="E14">
+        <v>2000</v>
+      </c>
+      <c r="F14">
+        <v>2000</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2000</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2000</v>
+      </c>
+      <c r="E15">
+        <v>2000</v>
+      </c>
+      <c r="F15">
+        <v>1460</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>2000</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>2500</v>
       </c>
-      <c r="F5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f>SUM(B15:P15)</f>
+        <v>9960</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f>SUM(B16:P16)</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>2000</v>
+      </c>
+      <c r="C17">
+        <v>2500</v>
+      </c>
+      <c r="D17">
+        <v>2000</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2000</v>
+      </c>
+      <c r="G17">
+        <v>1800</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P17" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
         <v>1500</v>
       </c>
-      <c r="C6">
+      <c r="C18">
+        <v>1710</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>1370</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>1500</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>2000</v>
-      </c>
-      <c r="C7">
-        <v>2000</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>2000</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f>SUM(B18:P18)</f>
+        <v>10580</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3000</v>
+      </c>
+      <c r="G19">
+        <v>3000</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>2000</v>
+      </c>
+      <c r="J19">
+        <v>2000</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P19" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q19">
+        <f>SUM(B19:P19)</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2000</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P20" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2500</v>
+      </c>
+      <c r="C21">
+        <v>2000</v>
+      </c>
+      <c r="D21">
+        <v>2000</v>
+      </c>
+      <c r="E21">
+        <v>2000</v>
+      </c>
+      <c r="F21">
+        <v>1794</v>
+      </c>
+      <c r="G21">
+        <v>1500</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2000</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>2000</v>
+      </c>
+      <c r="M21">
+        <v>2000</v>
+      </c>
+      <c r="N21">
+        <v>2000</v>
+      </c>
+      <c r="O21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q21">
+        <f>SUM(B21:P21)</f>
+        <v>23294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B8">
-        <v>2000</v>
-      </c>
-      <c r="C8">
-        <v>2000</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>2000</v>
-      </c>
-      <c r="C9">
-        <v>2000</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="B22">
+        <v>2000</v>
+      </c>
+      <c r="C22">
+        <v>2000</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2000</v>
+      </c>
+      <c r="G22">
+        <v>2000</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>2000</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>2000</v>
+      </c>
+      <c r="M22">
         <v>1500</v>
       </c>
-      <c r="F9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>2500</v>
-      </c>
-      <c r="C10">
-        <v>2000</v>
-      </c>
-      <c r="D10">
-        <v>2000</v>
-      </c>
-      <c r="E10">
-        <v>2000</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>2500</v>
-      </c>
-      <c r="C11">
-        <v>2500</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>2500</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>2250</v>
-      </c>
-      <c r="C12">
-        <v>2000</v>
-      </c>
-      <c r="D12">
-        <v>2000</v>
-      </c>
-      <c r="E12">
-        <v>2000</v>
-      </c>
-      <c r="F12">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
+      <c r="N22">
+        <v>2000</v>
+      </c>
+      <c r="O22">
+        <v>2000</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q22">
+        <f>SUM(B22:P22)</f>
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>2206</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2000</v>
+      </c>
+      <c r="G23">
+        <v>1800</v>
+      </c>
+      <c r="H23">
+        <v>2000</v>
+      </c>
+      <c r="I23">
+        <v>2000</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2000</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>1500</v>
       </c>
-      <c r="C13">
-        <v>1710</v>
-      </c>
-      <c r="D13">
-        <v>2000</v>
-      </c>
-      <c r="E13">
-        <v>1370</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>2500</v>
-      </c>
-      <c r="C14">
-        <v>2000</v>
-      </c>
-      <c r="D14">
-        <v>2000</v>
-      </c>
-      <c r="E14">
-        <v>2000</v>
-      </c>
-      <c r="F14">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>2000</v>
-      </c>
-      <c r="C15">
-        <v>2500</v>
-      </c>
-      <c r="D15">
-        <v>2000</v>
-      </c>
-      <c r="F15">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>2370</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>2000</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>2000</v>
-      </c>
-      <c r="E18">
-        <v>2000</v>
-      </c>
-      <c r="F18">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19">
-        <v>2206</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>2000</v>
-      </c>
-      <c r="F19">
-        <v>2000</v>
-      </c>
-      <c r="G19">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
-        <v>3500</v>
-      </c>
-      <c r="C20">
-        <v>3500</v>
-      </c>
-      <c r="D20">
-        <v>3500</v>
-      </c>
-      <c r="E20">
-        <v>3500</v>
-      </c>
-      <c r="F20">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="P24" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q24">
+        <f>SUM(B24:P24)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B21">
-        <f>SUM(B6:B20)</f>
+      <c r="B25">
+        <f t="shared" ref="B25:N25" si="0">SUM(B2:B23)</f>
         <v>28826</v>
       </c>
-      <c r="C21">
-        <f>SUM(C4:C20)</f>
+      <c r="C25">
+        <f t="shared" si="0"/>
         <v>28210</v>
       </c>
-      <c r="D21">
-        <f>SUM(D4:D20)</f>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>32000</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>21370</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>25154</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>27600</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>21220</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>27000</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>26000</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
         <v>23500</v>
       </c>
-      <c r="E21">
-        <f>SUM(E4:E20)</f>
-        <v>21370</v>
-      </c>
-      <c r="F21">
-        <f>SUM(F4:F20)</f>
-        <v>25154</v>
+      <c r="O25">
+        <v>33000</v>
+      </c>
+      <c r="P25">
+        <f>SUM(P2:P24)</f>
+        <v>27000</v>
+      </c>
+      <c r="Q25">
+        <f>SUM(B25:P25)</f>
+        <v>360180</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:K24">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/bill2/kansepur bill2.xlsx
+++ b/bill2/kansepur bill2.xlsx
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="C492" sqref="C492"/>
+    <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
+      <selection activeCell="A458" sqref="A458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -477,6 +477,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="449" spans="2:4">
+    <row r="449" spans="1:4">
       <c r="B449" t="s">
         <v>11</v>
       </c>
@@ -4204,7 +4205,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="450" spans="2:4">
+    <row r="450" spans="1:4">
       <c r="B450" t="s">
         <v>15</v>
       </c>
@@ -4212,7 +4213,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="451" spans="2:4">
+    <row r="451" spans="1:4">
       <c r="B451" t="s">
         <v>3</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="452" spans="2:4">
+    <row r="452" spans="1:4">
       <c r="B452" t="s">
         <v>0</v>
       </c>
@@ -4228,7 +4229,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="453" spans="2:4">
+    <row r="453" spans="1:4">
       <c r="B453" t="s">
         <v>10</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="454" spans="2:4">
+    <row r="454" spans="1:4">
       <c r="B454" t="s">
         <v>17</v>
       </c>
@@ -4244,7 +4245,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="455" spans="2:4">
+    <row r="455" spans="1:4">
       <c r="B455" t="s">
         <v>5</v>
       </c>
@@ -4255,7 +4256,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="456" spans="2:4">
+    <row r="456" spans="1:4">
       <c r="B456" t="s">
         <v>2</v>
       </c>
@@ -4263,7 +4264,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="457" spans="2:4">
+    <row r="457" spans="1:4">
+      <c r="A457" s="1">
+        <v>43465</v>
+      </c>
       <c r="B457" t="s">
         <v>17</v>
       </c>
@@ -4271,7 +4275,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="458" spans="2:4">
+    <row r="458" spans="1:4">
       <c r="B458" t="s">
         <v>17</v>
       </c>
@@ -4279,7 +4283,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="459" spans="2:4">
+    <row r="459" spans="1:4">
       <c r="B459" t="s">
         <v>10</v>
       </c>
@@ -4287,7 +4291,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="460" spans="2:4">
+    <row r="460" spans="1:4">
       <c r="B460" t="s">
         <v>10</v>
       </c>
@@ -4295,7 +4299,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="461" spans="2:4">
+    <row r="461" spans="1:4">
       <c r="B461" t="s">
         <v>3</v>
       </c>
@@ -4303,7 +4307,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="462" spans="2:4">
+    <row r="462" spans="1:4">
       <c r="B462" t="s">
         <v>3</v>
       </c>
@@ -4311,7 +4315,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="463" spans="2:4">
+    <row r="463" spans="1:4">
       <c r="B463" t="s">
         <v>19</v>
       </c>
@@ -4319,7 +4323,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="464" spans="2:4">
+    <row r="464" spans="1:4">
       <c r="B464" t="s">
         <v>19</v>
       </c>
@@ -4558,7 +4562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>

--- a/bill2/kansepur bill2.xlsx
+++ b/bill2/kansepur bill2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="31">
   <si>
     <t>jabir</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>cash</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
+    <sheetView topLeftCell="A468" workbookViewId="0">
       <selection activeCell="A458" sqref="A458"/>
     </sheetView>
   </sheetViews>
@@ -4562,8 +4565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4616,6 +4619,9 @@
       </c>
       <c r="P1" s="2">
         <v>43830</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">

--- a/bill2/kansepur bill2.xlsx
+++ b/bill2/kansepur bill2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="34">
   <si>
     <t>jabir</t>
   </si>
@@ -108,7 +108,16 @@
     <t>cash</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>balance</t>
   </si>
 </sst>
 </file>
@@ -443,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D492"/>
+  <dimension ref="A1:D491"/>
   <sheetViews>
-    <sheetView topLeftCell="A468" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458"/>
+    <sheetView topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="C493" sqref="C493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4550,12 +4559,6 @@
         <v>538</v>
       </c>
     </row>
-    <row r="492" spans="2:3">
-      <c r="C492">
-        <f>SUM(C2:C491)</f>
-        <v>214374</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4563,15 +4566,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -4621,10 +4624,22 @@
         <v>43830</v>
       </c>
       <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4677,8 +4692,11 @@
         <f>SUM(B2:P2)</f>
         <v>18500</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -4731,8 +4749,11 @@
         <f>SUM(B3:P3)</f>
         <v>9000</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4781,8 +4802,11 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4835,8 +4859,11 @@
         <f>SUM(B5:P5)</f>
         <v>13650</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4889,8 +4916,11 @@
         <f>SUM(B6:P6)</f>
         <v>16020</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4943,8 +4973,20 @@
         <f>SUM(Q5:Q6)</f>
         <v>29670</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>10000</v>
+      </c>
+      <c r="S7">
+        <v>31</v>
+      </c>
+      <c r="T7">
+        <v>26</v>
+      </c>
+      <c r="U7">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -4997,8 +5039,11 @@
         <f>SUM(B8:P8)</f>
         <v>20500</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -5051,8 +5096,11 @@
         <f>SUM(B9:P9)</f>
         <v>18870</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -5105,8 +5153,11 @@
         <f>SUM(Q8:Q9)</f>
         <v>39370</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -5159,8 +5210,11 @@
         <f>SUM(B11:P11)</f>
         <v>6000</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -5213,8 +5267,11 @@
         <f>SUM(B12:P12)</f>
         <v>11000</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -5267,8 +5324,11 @@
         <f>SUM(B13:P13)</f>
         <v>56000</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5317,8 +5377,11 @@
       <c r="P14" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5371,8 +5434,20 @@
         <f>SUM(B15:P15)</f>
         <v>9960</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>21</v>
+      </c>
+      <c r="T15">
+        <v>21</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -5425,8 +5500,11 @@
         <f>SUM(B16:P16)</f>
         <v>4000</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -5475,8 +5553,20 @@
       <c r="P17" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>19040</v>
+      </c>
+      <c r="S17">
+        <v>32</v>
+      </c>
+      <c r="T17">
+        <v>29</v>
+      </c>
+      <c r="U17">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -5529,8 +5619,11 @@
         <f>SUM(B18:P18)</f>
         <v>10580</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>10056</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -5583,8 +5676,11 @@
         <f>SUM(B19:P19)</f>
         <v>14000</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5633,8 +5729,11 @@
       <c r="P20" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -5687,8 +5786,11 @@
         <f>SUM(B21:P21)</f>
         <v>23294</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -5741,8 +5843,11 @@
         <f>SUM(B22:P22)</f>
         <v>21500</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>15016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -5791,8 +5896,20 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>19</v>
+      </c>
+      <c r="T23">
+        <v>19</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -5846,7 +5963,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>27</v>
       </c>

--- a/bill2/kansepur bill2.xlsx
+++ b/bill2/kansepur bill2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20280" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="34">
   <si>
     <t>jabir</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>gulfam</t>
-  </si>
-  <si>
-    <t>wazid</t>
   </si>
   <si>
     <t>sehzad</t>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>balance</t>
+  </si>
+  <si>
+    <t>Column sum</t>
   </si>
 </sst>
 </file>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D491"/>
   <sheetViews>
-    <sheetView topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="C493" sqref="C493"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="B397" sqref="B397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -465,16 +465,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -491,7 +491,7 @@
     <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>436</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>411</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>409</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>416</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>486</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>411</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>436</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>409</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>416</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>486</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>399</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>401</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>411</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>436</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>409</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>416</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="B37" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C37">
         <v>399</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38">
         <v>401</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>411</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41">
         <v>411</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="B44" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C44">
         <v>399</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>409</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="B46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46">
         <v>486</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="B48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>416</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="50" spans="2:4">
       <c r="B50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50">
         <v>538</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="51" spans="2:4">
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51">
         <v>401</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="54" spans="2:4">
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54">
         <v>411</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="56" spans="2:4">
       <c r="B56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C56">
         <v>416</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C58">
         <v>486</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="59" spans="2:4">
       <c r="B59" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C59">
         <v>399</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60">
         <v>401</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="61" spans="2:4">
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61">
         <v>538</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="B65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65">
         <v>409</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67">
         <v>411</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="B69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C69">
         <v>486</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="B71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71">
         <v>416</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="B72" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C72">
         <v>419</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73">
         <v>538</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75">
         <v>401</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="B76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76">
         <v>409</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="82" spans="2:4">
       <c r="B82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82">
         <v>456</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="83" spans="2:4">
       <c r="B83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83">
         <v>379</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="85" spans="2:4">
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85">
         <v>381</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="86" spans="2:4">
       <c r="B86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C86">
         <v>406</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87">
         <v>508</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="89" spans="2:4">
       <c r="B89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C89">
         <v>380</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="91" spans="2:4">
       <c r="B91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91">
         <v>371</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="93" spans="2:4">
       <c r="B93" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C93">
         <v>389</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="95" spans="2:4">
       <c r="B95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C95">
         <v>386</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="97" spans="2:4">
       <c r="B97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C97">
         <v>399</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="98" spans="2:4">
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98">
         <v>401</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="99" spans="2:4">
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99">
         <v>391</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="100" spans="2:4">
       <c r="B100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C100">
         <v>476</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="102" spans="2:4">
       <c r="B102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C102">
         <v>426</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="103" spans="2:4">
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103">
         <v>528</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="108" spans="2:4">
       <c r="B108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C108">
         <v>380</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="110" spans="2:4">
       <c r="B110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C110">
         <v>416</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="111" spans="2:4">
       <c r="B111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C111">
         <v>409</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="112" spans="2:4">
       <c r="B112" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C112">
         <v>399</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="B113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C113">
         <v>486</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="B114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114">
         <v>401</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="B115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C115">
         <v>436</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="B116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C116">
         <v>538</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="B122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C122">
         <v>380</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="B123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C123">
         <v>416</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="B124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C124">
         <v>409</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="B126" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C126">
         <v>419</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="129" spans="2:4">
       <c r="B129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C129">
         <v>380</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="130" spans="2:4">
       <c r="B130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C130">
         <v>409</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="131" spans="2:4">
       <c r="B131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C131">
         <v>411</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="133" spans="2:4">
       <c r="B133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C133">
         <v>436</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="134" spans="2:4">
       <c r="B134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C134">
         <v>486</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="135" spans="2:4">
       <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135">
         <v>401</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="138" spans="2:4">
       <c r="B138" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C138">
         <v>419</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="139" spans="2:4">
       <c r="B139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C139">
         <v>538</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="140" spans="2:4">
       <c r="B140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C140">
         <v>416</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="144" spans="2:4">
       <c r="B144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C144">
         <v>411</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="B145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C145">
         <v>380</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="B146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C146">
         <v>436</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="B147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C147">
         <v>409</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="B148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C148">
         <v>486</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="B150" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C150">
         <v>419</v>
@@ -1775,7 +1775,7 @@
     <row r="151" spans="1:3">
       <c r="A151" s="1"/>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C151">
         <v>416</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153">
         <v>401</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="B155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C155">
         <v>538</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="B156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C156">
         <v>411</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="B157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C157">
         <v>409</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="B158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C158">
         <v>380</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="B159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C159">
         <v>486</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="B161" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C161">
         <v>419</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164">
         <v>401</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165">
         <v>411</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="B166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C166">
         <v>538</v>
@@ -1906,7 +1906,7 @@
         <v>43452</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C167">
         <v>470</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="B171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171">
         <v>411</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="B172" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C172">
         <v>380</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="B173" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C173">
         <v>486</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="B174" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C174">
         <v>436</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="B175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C175">
         <v>416</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="B176" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C176">
         <v>409</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="177" spans="2:4">
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177">
         <v>401</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="178" spans="2:4">
       <c r="B178" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C178">
         <v>538</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="183" spans="2:4">
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183">
         <v>411</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="185" spans="2:4">
       <c r="B185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C185">
         <v>470</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="186" spans="2:4">
       <c r="B186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C186">
         <v>386</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="187" spans="2:4">
       <c r="B187" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C187">
         <v>380</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="188" spans="2:4">
       <c r="B188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C188">
         <v>476</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="189" spans="2:4">
       <c r="B189" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C189">
         <v>419</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="190" spans="2:4">
       <c r="B190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C190">
         <v>518</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="191" spans="2:4">
       <c r="B191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C191">
         <v>416</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="B195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195">
         <v>411</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="B198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C198">
         <v>380</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="B199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199">
         <v>401</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="B200" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C200">
         <v>470</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="B201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C201">
         <v>538</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="B205" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C205">
         <v>470</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="B206" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C206">
         <v>380</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="B207" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C207">
         <v>400</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="B208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C208">
         <v>405</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="209" spans="2:3">
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209">
         <v>411</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="210" spans="2:3">
       <c r="B210" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C210">
         <v>419</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="211" spans="2:3">
       <c r="B211" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C211">
         <v>486</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="213" spans="2:3">
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213">
         <v>401</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="214" spans="2:3">
       <c r="B214" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C214">
         <v>450</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="215" spans="2:3">
       <c r="B215" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C215">
         <v>436</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="216" spans="2:3">
       <c r="B216" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C216">
         <v>470</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="219" spans="2:3">
       <c r="B219" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C219">
         <v>380</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="220" spans="2:3">
       <c r="B220" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C220">
         <v>419</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="221" spans="2:3">
       <c r="B221" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C221">
         <v>411</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="223" spans="2:3">
       <c r="B223" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C223">
         <v>486</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="224" spans="2:3">
       <c r="B224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C224">
         <v>410</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="B225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225">
         <v>401</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="B226" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C226">
         <v>405</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="B227" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C227">
         <v>450</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="B228" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C228">
         <v>436</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="B231" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C231">
         <v>470</v>
@@ -2453,7 +2453,7 @@
     <row r="233" spans="1:3">
       <c r="A233" s="1"/>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C233">
         <v>419</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="B234" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C234">
         <v>411</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="B235" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C235">
         <v>380</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="B236" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C236">
         <v>486</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="B238" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C238">
         <v>410</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="B239" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C239">
         <v>416</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="B240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240">
         <v>401</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="B241" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C241">
         <v>405</v>
@@ -2528,7 +2528,7 @@
         <v>43454</v>
       </c>
       <c r="B242" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C242">
         <v>405</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="B246" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C246">
         <v>380</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247">
         <v>411</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="B248" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C248">
         <v>450</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="B249" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C249">
         <v>436</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="B250" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C250">
         <v>410</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="B251" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C251">
         <v>470</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="B252" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C252">
         <v>419</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="B253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C253">
         <v>538</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255">
         <v>401</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="B256" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C256">
         <v>486</v>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="259" spans="2:3">
       <c r="B259" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C259">
         <v>416</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="262" spans="2:3">
       <c r="B262" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C262">
         <v>380</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="263" spans="2:3">
       <c r="B263" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C263">
         <v>411</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="264" spans="2:3">
       <c r="B264" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C264">
         <v>470</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="265" spans="2:3">
       <c r="B265" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C265">
         <v>405</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="266" spans="2:3">
       <c r="B266" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C266">
         <v>410</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="267" spans="2:3">
       <c r="B267" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C267">
         <v>419</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="269" spans="2:3">
       <c r="B269" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C269">
         <v>436</v>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="270" spans="2:3">
       <c r="B270" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C270">
         <v>538</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="271" spans="2:3">
       <c r="B271" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C271">
         <v>486</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="272" spans="2:3">
       <c r="B272" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C272">
         <v>401</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="B275" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C275">
         <v>450</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="B278" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C278">
         <v>411</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="B279" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C279">
         <v>416</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="B280" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C280">
         <v>470</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="281" spans="1:3">
       <c r="B281" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C281">
         <v>380</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="B282" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C282">
         <v>410</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="B284" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C284">
         <v>405</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="B285" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C285">
         <v>436</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="B286" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C286">
         <v>419</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="289" spans="2:3">
       <c r="B289" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C289">
         <v>450</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="290" spans="2:3">
       <c r="B290" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C290">
         <v>486</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="291" spans="2:3">
       <c r="B291" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C291">
         <v>411</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="292" spans="2:3">
       <c r="B292" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C292">
         <v>409</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="295" spans="2:3">
       <c r="B295" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C295">
         <v>436</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="297" spans="2:3">
       <c r="B297" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C297">
         <v>538</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="299" spans="2:3">
       <c r="B299" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C299">
         <v>416</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="300" spans="2:3">
       <c r="B300" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C300">
         <v>419</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="301" spans="2:3">
       <c r="B301" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C301">
         <v>401</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="302" spans="2:3">
       <c r="B302" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C302">
         <v>380</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="303" spans="2:3">
       <c r="B303" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C303">
         <v>470</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="304" spans="2:3">
       <c r="B304" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C304">
         <v>430</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="B306" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C306">
         <v>450</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="308" spans="1:3">
       <c r="B308" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C308">
         <v>450</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="B309" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C309">
         <v>405</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="B312" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C312">
         <v>436</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="B313" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C313">
         <v>416</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="B314" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C314">
         <v>486</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="B315" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C315">
         <v>411</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="B317" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C317">
         <v>470</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="B318" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C318">
         <v>380</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="321" spans="2:3">
       <c r="B321" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C321">
         <v>401</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="322" spans="2:3">
       <c r="B322" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C322">
         <v>538</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="323" spans="2:3">
       <c r="B323" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C323">
         <v>419</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="324" spans="2:3">
       <c r="B324" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C324">
         <v>453</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="326" spans="2:3">
       <c r="B326" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C326">
         <v>450</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="328" spans="2:3">
       <c r="B328" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C328">
         <v>436</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="329" spans="2:3">
       <c r="B329" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C329">
         <v>405</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="330" spans="2:3">
       <c r="B330" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C330">
         <v>470</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="332" spans="2:3">
       <c r="B332" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C332">
         <v>416</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="333" spans="2:3">
       <c r="B333" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C333">
         <v>411</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="334" spans="2:3">
       <c r="B334" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C334">
         <v>486</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="335" spans="2:3">
       <c r="B335" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C335">
         <v>380</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="B337" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C337">
         <v>401</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="B339" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C339">
         <v>538</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="B340" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C340">
         <v>419</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="B341" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C341">
         <v>453</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="B343" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C343">
         <v>430</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="B346" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C346">
         <v>470</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="B347" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C347">
         <v>411</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="B348" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C348">
         <v>436</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="B349" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C349">
         <v>405</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="B352" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C352">
         <v>405</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="353" spans="1:3">
       <c r="B353" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C353">
         <v>450</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="355" spans="1:3">
       <c r="B355" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C355">
         <v>411</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="B356" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C356">
         <v>486</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="B357" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C357">
         <v>436</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="B359" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C359">
         <v>380</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="B360" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C360">
         <v>453</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="B361" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C361">
         <v>416</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="B362" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C362">
         <v>419</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="B363" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C363">
         <v>401</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="B364" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C364">
         <v>430</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="B365" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C365">
         <v>470</v>
@@ -3532,7 +3532,7 @@
         <v>43461</v>
       </c>
       <c r="B366" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C366">
         <v>420</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="B367" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C367">
         <v>405</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="B368" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C368">
         <v>419</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="370" spans="1:3">
       <c r="B370" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C370">
         <v>486</v>
@@ -3575,7 +3575,7 @@
         <v>43462</v>
       </c>
       <c r="B371" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C371">
         <v>420</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="374" spans="1:3">
       <c r="B374" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C374">
         <v>416</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="376" spans="1:3">
       <c r="B376" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C376">
         <v>486</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="B377" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C377">
         <v>453</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="378" spans="1:3">
       <c r="B378" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C378">
         <v>380</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="379" spans="1:3">
       <c r="B379" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C379">
         <v>419</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="B380" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C380">
         <v>405</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="381" spans="1:3">
       <c r="B381" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C381">
         <v>538</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="B383" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C383">
         <v>420</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="384" spans="1:3">
       <c r="B384" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C384">
         <v>416</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="B385" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C385">
         <v>486</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="B388" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C388">
         <v>453</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="B389" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C389">
         <v>405</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="B390" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C390">
         <v>538</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="B391" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C391">
         <v>420</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="B394" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C394">
         <v>416</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="B395" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C395">
         <v>456</v>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="B396" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C396">
         <v>420</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="B397" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C397">
         <v>419</v>
@@ -3800,7 +3800,7 @@
         <v>43463</v>
       </c>
       <c r="B398" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C398">
         <v>420</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="B399" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C399">
         <v>405</v>
@@ -3832,7 +3832,7 @@
     </row>
     <row r="402" spans="2:3">
       <c r="B402" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C402">
         <v>416</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="403" spans="2:3">
       <c r="B403" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C403">
         <v>486</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="405" spans="2:3">
       <c r="B405" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C405">
         <v>419</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="406" spans="2:3">
       <c r="B406" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C406">
         <v>538</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="408" spans="2:3">
       <c r="B408" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C408">
         <v>420</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="410" spans="2:3">
       <c r="B410" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C410">
         <v>405</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="411" spans="2:3">
       <c r="B411" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C411">
         <v>486</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="412" spans="2:3">
       <c r="B412" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C412">
         <v>419</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="413" spans="2:3">
       <c r="B413" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C413">
         <v>416</v>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="415" spans="2:3">
       <c r="B415" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C415">
         <v>538</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="419" spans="1:3">
       <c r="B419" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C419">
         <v>420</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="420" spans="1:3">
       <c r="B420" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C420">
         <v>486</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="422" spans="1:3">
       <c r="B422" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C422">
         <v>419</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="B423" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C423">
         <v>416</v>
@@ -4008,7 +4008,7 @@
     </row>
     <row r="424" spans="1:3">
       <c r="B424" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C424">
         <v>538</v>
@@ -4027,7 +4027,7 @@
         <v>43464</v>
       </c>
       <c r="B426" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C426">
         <v>420</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="428" spans="1:3">
       <c r="B428" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C428">
         <v>405</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="B429" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C429">
         <v>453</v>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="B431" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C431">
         <v>486</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="432" spans="1:3">
       <c r="B432" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C432">
         <v>416</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="433" spans="2:3">
       <c r="B433" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C433">
         <v>419</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="436" spans="2:3">
       <c r="B436" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C436">
         <v>470</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="437" spans="2:3">
       <c r="B437" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C437">
         <v>430</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="438" spans="2:3">
       <c r="B438" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C438">
         <v>420</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="439" spans="2:3">
       <c r="B439" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C439">
         <v>405</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="440" spans="2:3">
       <c r="B440" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C440">
         <v>419</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="441" spans="2:3">
       <c r="B441" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C441">
         <v>453</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="442" spans="2:3">
       <c r="B442" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C442">
         <v>416</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="444" spans="2:3">
       <c r="B444" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C444">
         <v>486</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="447" spans="2:3">
       <c r="B447" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C447">
         <v>419</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="448" spans="2:3">
       <c r="B448" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C448">
         <v>453</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="B449" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C449">
         <v>416</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="B450" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C450">
         <v>470</v>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="B453" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C453">
         <v>420</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="B454" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C454">
         <v>405</v>
@@ -4281,7 +4281,7 @@
         <v>43465</v>
       </c>
       <c r="B457" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C457">
         <v>405</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="B458" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C458">
         <v>405</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="B459" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C459">
         <v>420</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="B460" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C460">
         <v>420</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="B463" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C463">
         <v>453</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="B464" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C464">
         <v>453</v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="465" spans="2:3">
       <c r="B465" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C465">
         <v>419</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="466" spans="2:3">
       <c r="B466" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C466">
         <v>419</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="467" spans="2:3">
       <c r="B467" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C467">
         <v>416</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="468" spans="2:3">
       <c r="B468" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C468">
         <v>416</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="469" spans="2:3">
       <c r="B469" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C469">
         <v>416</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="470" spans="2:3">
       <c r="B470" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C470">
         <v>538</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="471" spans="2:3">
       <c r="B471" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C471">
         <v>538</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="472" spans="2:3">
       <c r="B472" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C472">
         <v>538</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="473" spans="2:3">
       <c r="B473" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C473">
         <v>486</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="474" spans="2:3">
       <c r="B474" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C474">
         <v>486</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="475" spans="2:3">
       <c r="B475" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C475">
         <v>486</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="483" spans="2:3">
       <c r="B483" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C483">
         <v>419</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="484" spans="2:3">
       <c r="B484" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C484">
         <v>453</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="485" spans="2:3">
       <c r="B485" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C485">
         <v>470</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="486" spans="2:3">
       <c r="B486" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C486">
         <v>470</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="487" spans="2:3">
       <c r="B487" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C487">
         <v>470</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="488" spans="2:3">
       <c r="B488" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C488">
         <v>450</v>
@@ -4566,17 +4566,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2">
         <v>43813</v>
@@ -4624,24 +4624,24 @@
         <v>43830</v>
       </c>
       <c r="Q1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>31</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>32</v>
-      </c>
-      <c r="U1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1500</v>
@@ -4689,7 +4689,7 @@
         <v>2000</v>
       </c>
       <c r="Q2">
-        <f>SUM(B2:P2)</f>
+        <f t="shared" ref="Q2:Q9" si="0">SUM(B2:P2)</f>
         <v>18500</v>
       </c>
       <c r="R2">
@@ -4698,7 +4698,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>SUM(B3:P3)</f>
+        <f t="shared" si="0"/>
         <v>9000</v>
       </c>
       <c r="R3">
@@ -4802,13 +4802,17 @@
       <c r="P4">
         <v>0</v>
       </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
       <c r="R4">
         <v>15000</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2250</v>
@@ -4856,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>SUM(B5:P5)</f>
+        <f t="shared" si="0"/>
         <v>13650</v>
       </c>
       <c r="R5">
@@ -4865,7 +4869,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -4913,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>SUM(B6:P6)</f>
+        <f t="shared" si="0"/>
         <v>16020</v>
       </c>
       <c r="R6">
@@ -4970,20 +4974,17 @@
         <v>2000</v>
       </c>
       <c r="Q7">
-        <f>SUM(Q5:Q6)</f>
-        <v>29670</v>
+        <f t="shared" si="0"/>
+        <v>21500</v>
       </c>
       <c r="R7">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="S7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="T7">
         <v>26</v>
-      </c>
-      <c r="U7">
-        <v>1250</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -5036,7 +5037,7 @@
         <v>2000</v>
       </c>
       <c r="Q8">
-        <f>SUM(B8:P8)</f>
+        <f t="shared" si="0"/>
         <v>20500</v>
       </c>
       <c r="R8">
@@ -5093,7 +5094,7 @@
         <v>2000</v>
       </c>
       <c r="Q9">
-        <f>SUM(B9:P9)</f>
+        <f t="shared" si="0"/>
         <v>18870</v>
       </c>
       <c r="R9">
@@ -5159,7 +5160,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5207,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>SUM(B11:P11)</f>
+        <f t="shared" ref="Q11:Q24" si="1">SUM(B11:P11)</f>
         <v>6000</v>
       </c>
       <c r="R11">
@@ -5216,7 +5217,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -5264,7 +5265,7 @@
         <v>1500</v>
       </c>
       <c r="Q12">
-        <f>SUM(B12:P12)</f>
+        <f t="shared" si="1"/>
         <v>11000</v>
       </c>
       <c r="R12">
@@ -5273,7 +5274,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>3500</v>
@@ -5321,7 +5322,7 @@
         <v>3500</v>
       </c>
       <c r="Q13">
-        <f>SUM(B13:P13)</f>
+        <f t="shared" si="1"/>
         <v>56000</v>
       </c>
       <c r="R13">
@@ -5330,7 +5331,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -5377,13 +5378,17 @@
       <c r="P14" s="3">
         <v>2000</v>
       </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>16500</v>
+      </c>
       <c r="R14">
         <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5449,7 +5454,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5497,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <f>SUM(B16:P16)</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="R16">
@@ -5553,6 +5558,10 @@
       <c r="P17" s="3">
         <v>2000</v>
       </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>18300</v>
+      </c>
       <c r="R17">
         <v>19040</v>
       </c>
@@ -5568,7 +5577,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>1500</v>
@@ -5616,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <f>SUM(B18:P18)</f>
+        <f t="shared" si="1"/>
         <v>10580</v>
       </c>
       <c r="R18">
@@ -5625,7 +5634,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5673,7 +5682,7 @@
         <v>2000</v>
       </c>
       <c r="Q19">
-        <f>SUM(B19:P19)</f>
+        <f t="shared" si="1"/>
         <v>14000</v>
       </c>
       <c r="R19">
@@ -5682,7 +5691,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5729,13 +5738,14 @@
       <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20">
-        <v>0</v>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>8000</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>2500</v>
@@ -5783,7 +5793,7 @@
         <v>1500</v>
       </c>
       <c r="Q21">
-        <f>SUM(B21:P21)</f>
+        <f t="shared" si="1"/>
         <v>23294</v>
       </c>
       <c r="R21">
@@ -5792,7 +5802,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>2000</v>
@@ -5840,7 +5850,7 @@
         <v>2000</v>
       </c>
       <c r="Q22">
-        <f>SUM(B22:P22)</f>
+        <f t="shared" si="1"/>
         <v>21500</v>
       </c>
       <c r="R22">
@@ -5849,7 +5859,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>2206</v>
@@ -5896,6 +5906,10 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>14006</v>
+      </c>
       <c r="R23">
         <v>0</v>
       </c>
@@ -5911,7 +5925,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5959,64 +5973,67 @@
         <v>500</v>
       </c>
       <c r="Q24">
-        <f>SUM(B24:P24)</f>
-        <v>2000</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:N25" si="0">SUM(B2:B23)</f>
+        <f t="shared" ref="B25:N25" si="2">SUM(B2:B23)</f>
         <v>28826</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28210</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32000</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21370</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25154</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27600</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21220</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6300</v>
       </c>
       <c r="L25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13000</v>
       </c>
       <c r="M25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26000</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23500</v>
       </c>
       <c r="O25">
@@ -6027,8 +6044,20 @@
         <v>27000</v>
       </c>
       <c r="Q25">
-        <f>SUM(B25:P25)</f>
+        <f>SUM(A25:P25)</f>
         <v>360180</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="P26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26">
+        <f>SUM(Q2:Q24)</f>
+        <v>385550</v>
       </c>
     </row>
   </sheetData>
@@ -6052,10 +6081,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/bill2/kansepur bill2.xlsx
+++ b/bill2/kansepur bill2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20280" windowHeight="8025"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20280" windowHeight="8025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+    <sheetView topLeftCell="A385" workbookViewId="0">
       <selection activeCell="B397" sqref="B397"/>
     </sheetView>
   </sheetViews>
@@ -4568,8 +4568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4689,7 +4689,7 @@
         <v>2000</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q9" si="0">SUM(B2:P2)</f>
+        <f>SUM(B2:P2)</f>
         <v>18500</v>
       </c>
       <c r="R2">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="0"/>
+        <f>SUM(B3:P3)</f>
         <v>9000</v>
       </c>
       <c r="R3">
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f>SUM(B4:P4)</f>
         <v>13000</v>
       </c>
       <c r="R4">
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f>SUM(B5:P5)</f>
         <v>13650</v>
       </c>
       <c r="R5">
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:P6)</f>
         <v>16020</v>
       </c>
       <c r="R6">
@@ -4974,7 +4974,7 @@
         <v>2000</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q2:Q9" si="0">SUM(B7:P7)</f>
         <v>21500</v>
       </c>
       <c r="R7">
@@ -5037,7 +5037,7 @@
         <v>2000</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
+        <f>SUM(B8:P8)</f>
         <v>20500</v>
       </c>
       <c r="R8">
@@ -5094,7 +5094,7 @@
         <v>2000</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:P9)</f>
         <v>18870</v>
       </c>
       <c r="R9">
@@ -5151,8 +5151,8 @@
         <v>2000</v>
       </c>
       <c r="Q10">
-        <f>SUM(Q8:Q9)</f>
-        <v>39370</v>
+        <f>SUM(B10:P10)</f>
+        <v>16000</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -5379,7 +5379,7 @@
         <v>2000</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="1"/>
+        <f>SUM(B14:P14)</f>
         <v>16500</v>
       </c>
       <c r="R14">
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="1"/>
+        <f>SUM(B18:P18)</f>
         <v>10580</v>
       </c>
       <c r="R18">
@@ -5682,7 +5682,7 @@
         <v>2000</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="1"/>
+        <f>SUM(B19:P19)</f>
         <v>14000</v>
       </c>
       <c r="R19">
@@ -5850,7 +5850,7 @@
         <v>2000</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="1"/>
+        <f>SUM(B22:P22)</f>
         <v>21500</v>
       </c>
       <c r="R22">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="Q26">
         <f>SUM(Q2:Q24)</f>
-        <v>385550</v>
+        <v>362180</v>
       </c>
     </row>
   </sheetData>
